--- a/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.39242700364738</v>
+        <v>25.3924270036474</v>
       </c>
       <c r="C2">
-        <v>18.04920900165835</v>
+        <v>18.04920900165834</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.46398661840865</v>
+        <v>11.46398661840867</v>
       </c>
       <c r="F2">
-        <v>31.45700625686142</v>
+        <v>31.45700625686143</v>
       </c>
       <c r="G2">
         <v>19.29314529009699</v>
       </c>
       <c r="H2">
-        <v>14.66369571618226</v>
+        <v>14.66369571618225</v>
       </c>
       <c r="I2">
-        <v>6.960161506116187</v>
+        <v>6.960161506116075</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.39643252980632</v>
+        <v>15.39643252980635</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.64052331965183</v>
+        <v>23.64052331965179</v>
       </c>
       <c r="C3">
-        <v>16.80714355308452</v>
+        <v>16.80714355308461</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.67893032725993</v>
+        <v>10.67893032725994</v>
       </c>
       <c r="F3">
-        <v>29.33785353781319</v>
+        <v>29.33785353781321</v>
       </c>
       <c r="G3">
         <v>18.5343687719413</v>
       </c>
       <c r="H3">
-        <v>14.51301360051814</v>
+        <v>14.51301360051816</v>
       </c>
       <c r="I3">
-        <v>7.177418041990477</v>
+        <v>7.177418041990504</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.36053438982805</v>
+        <v>14.36053438982807</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.50734856177764</v>
+        <v>22.50734856177761</v>
       </c>
       <c r="C4">
-        <v>16.00602384286649</v>
+        <v>16.00602384286634</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.17151783448647</v>
+        <v>10.17151783448653</v>
       </c>
       <c r="F4">
-        <v>28.02662373807594</v>
+        <v>28.02662373807591</v>
       </c>
       <c r="G4">
-        <v>18.09433517843479</v>
+        <v>18.09433517843486</v>
       </c>
       <c r="H4">
-        <v>14.45456588979265</v>
+        <v>14.45456588979279</v>
       </c>
       <c r="I4">
-        <v>7.318974219318108</v>
+        <v>7.318974219318367</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.69206801114947</v>
+        <v>13.69206801114945</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.03091668315511</v>
+        <v>22.03091668315507</v>
       </c>
       <c r="C5">
-        <v>15.66973358497854</v>
+        <v>15.66973358497859</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.958283797594232</v>
+        <v>9.958283797594246</v>
       </c>
       <c r="F5">
-        <v>27.48282505398763</v>
+        <v>27.4828250539876</v>
       </c>
       <c r="G5">
-        <v>17.921519309837</v>
+        <v>17.92151930983696</v>
       </c>
       <c r="H5">
-        <v>14.43876277060765</v>
+        <v>14.43876277060762</v>
       </c>
       <c r="I5">
-        <v>7.378549055268632</v>
+        <v>7.378549055268707</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.41141537905241</v>
+        <v>13.41141537905245</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.95091498968138</v>
+        <v>21.95091498968131</v>
       </c>
       <c r="C6">
-        <v>15.61329518793555</v>
+        <v>15.61329518793547</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.922484218605856</v>
+        <v>9.922484218605822</v>
       </c>
       <c r="F6">
-        <v>27.39196615814843</v>
+        <v>27.39196615814847</v>
       </c>
       <c r="G6">
-        <v>17.89321574902504</v>
+        <v>17.89321574902516</v>
       </c>
       <c r="H6">
-        <v>14.43660624361699</v>
+        <v>14.43660624361713</v>
       </c>
       <c r="I6">
-        <v>7.388551390765483</v>
+        <v>7.388551390765577</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.36431260549303</v>
+        <v>13.36431260549297</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.50098281808014</v>
+        <v>22.50098281808007</v>
       </c>
       <c r="C7">
-        <v>16.00152849364756</v>
+        <v>16.00152849364769</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.16866833543256</v>
+        <v>10.16866833543248</v>
       </c>
       <c r="F7">
-        <v>28.01932776048698</v>
+        <v>28.01932776048697</v>
       </c>
       <c r="G7">
-        <v>18.09197820927798</v>
+        <v>18.09197820927802</v>
       </c>
       <c r="H7">
-        <v>14.45432105556479</v>
+        <v>14.45432105556486</v>
       </c>
       <c r="I7">
-        <v>7.319770206969579</v>
+        <v>7.319770206969695</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.68831653973169</v>
+        <v>13.68831653973167</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.80018275823542</v>
+        <v>24.80018275823552</v>
       </c>
       <c r="C8">
-        <v>17.62883790138035</v>
+        <v>17.62883790138049</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.19851990608805</v>
+        <v>11.19851990608802</v>
       </c>
       <c r="F8">
-        <v>30.70396213580961</v>
+        <v>30.70396213580957</v>
       </c>
       <c r="G8">
-        <v>19.02615368694837</v>
+        <v>19.02615368694818</v>
       </c>
       <c r="H8">
-        <v>14.60434286068566</v>
+        <v>14.60434286068542</v>
       </c>
       <c r="I8">
-        <v>7.033269672066869</v>
+        <v>7.033269672066648</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.04592252824987</v>
+        <v>15.04592252824991</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.86222161005893</v>
+        <v>28.86222161005892</v>
       </c>
       <c r="C9">
-        <v>20.52218891634933</v>
+        <v>20.52218891634931</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.02043407059663</v>
+        <v>13.02043407059658</v>
       </c>
       <c r="F9">
-        <v>36.00632745934725</v>
+        <v>36.00632745934722</v>
       </c>
       <c r="G9">
-        <v>21.0635124621566</v>
+        <v>21.06351246215661</v>
       </c>
       <c r="H9">
-        <v>15.19230102477934</v>
+        <v>15.19230102477935</v>
       </c>
       <c r="I9">
-        <v>6.545560317959802</v>
+        <v>6.545560317959717</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.455938578414</v>
+        <v>17.45593857841396</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.58881756362432</v>
+        <v>31.58881756362427</v>
       </c>
       <c r="C10">
-        <v>22.47826952400563</v>
+        <v>22.47826952400567</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.24436809901374</v>
+        <v>14.24436809901373</v>
       </c>
       <c r="F10">
-        <v>39.6610494832515</v>
+        <v>39.66104948325144</v>
       </c>
       <c r="G10">
-        <v>22.74703841081481</v>
+        <v>22.74703841081476</v>
       </c>
       <c r="H10">
         <v>15.83325579158543</v>
       </c>
       <c r="I10">
-        <v>6.249469162901326</v>
+        <v>6.249469162901312</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.08084212517627</v>
+        <v>19.08084212517626</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.77686293462395</v>
+        <v>32.77686293462391</v>
       </c>
       <c r="C11">
         <v>23.33435618257915</v>
@@ -766,22 +766,22 @@
         <v>14.77774407949754</v>
       </c>
       <c r="F11">
-        <v>41.27414547148408</v>
+        <v>41.27414547148413</v>
       </c>
       <c r="G11">
         <v>23.73122424576253</v>
       </c>
       <c r="H11">
-        <v>16.17605882582064</v>
+        <v>16.17605882582066</v>
       </c>
       <c r="I11">
-        <v>6.133516372458115</v>
+        <v>6.133516372458235</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.79050678707788</v>
+        <v>19.7905067870779</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.21956364852176</v>
+        <v>33.21956364852171</v>
       </c>
       <c r="C12">
-        <v>23.65397389686436</v>
+        <v>23.65397389686448</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.97649202475829</v>
+        <v>14.97649202475825</v>
       </c>
       <c r="F12">
-        <v>41.87835474027428</v>
+        <v>41.87835474027423</v>
       </c>
       <c r="G12">
-        <v>24.10424484122956</v>
+        <v>24.10424484122951</v>
       </c>
       <c r="H12">
-        <v>16.31369039045529</v>
+        <v>16.3136903904553</v>
       </c>
       <c r="I12">
-        <v>6.092873078963753</v>
+        <v>6.092873078963797</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.12453399401268</v>
+        <v>33.12453399401264</v>
       </c>
       <c r="C13">
-        <v>23.58533646394472</v>
+        <v>23.58533646394476</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>41.74851400689258</v>
       </c>
       <c r="G13">
-        <v>24.02388730789081</v>
+        <v>24.02388730789079</v>
       </c>
       <c r="H13">
-        <v>16.28369402286198</v>
+        <v>16.28369402286197</v>
       </c>
       <c r="I13">
-        <v>6.101470709737684</v>
+        <v>6.101470709737675</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.99836646902559</v>
+        <v>19.99836646902562</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.81342615784467</v>
+        <v>32.81342615784461</v>
       </c>
       <c r="C14">
-        <v>23.36074099708669</v>
+        <v>23.36074099708678</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.79415909940804</v>
+        <v>14.79415909940803</v>
       </c>
       <c r="F14">
         <v>41.32398405878727</v>
       </c>
       <c r="G14">
-        <v>23.76190406200759</v>
+        <v>23.76190406200762</v>
       </c>
       <c r="H14">
-        <v>16.18722256436477</v>
+        <v>16.18722256436486</v>
       </c>
       <c r="I14">
-        <v>6.130103475655653</v>
+        <v>6.130103475655682</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.81236273862898</v>
+        <v>19.81236273862895</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.62193834512003</v>
+        <v>32.62193834512012</v>
       </c>
       <c r="C15">
-        <v>23.22258467869192</v>
+        <v>23.22258467869196</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.70819060429247</v>
+        <v>14.70819060429249</v>
       </c>
       <c r="F15">
-        <v>41.06309879277582</v>
+        <v>41.06309879277597</v>
       </c>
       <c r="G15">
-        <v>23.60148598474757</v>
+        <v>23.60148598474771</v>
       </c>
       <c r="H15">
         <v>16.12916269407609</v>
       </c>
       <c r="I15">
-        <v>6.148086143945291</v>
+        <v>6.148086143945221</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.69790948624114</v>
+        <v>19.69790948624117</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.51015132619215</v>
+        <v>31.51015132619204</v>
       </c>
       <c r="C16">
-        <v>22.42166705045586</v>
+        <v>22.42166705045591</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.20905106417512</v>
+        <v>14.20905106417507</v>
       </c>
       <c r="F16">
-        <v>39.55467339867415</v>
+        <v>39.55467339867407</v>
       </c>
       <c r="G16">
-        <v>22.68274639394177</v>
+        <v>22.68274639394167</v>
       </c>
       <c r="H16">
         <v>15.81192253849561</v>
       </c>
       <c r="I16">
-        <v>6.257470130111517</v>
+        <v>6.257470130111602</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.81493721069851</v>
+        <v>30.81493721069848</v>
       </c>
       <c r="C17">
-        <v>21.92188113260617</v>
+        <v>21.92188113260623</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.89694349214501</v>
+        <v>13.89694349214499</v>
       </c>
       <c r="F17">
         <v>38.61694774488152</v>
       </c>
       <c r="G17">
-        <v>22.20697692470928</v>
+        <v>22.20697692470936</v>
       </c>
       <c r="H17">
-        <v>15.63075200047968</v>
+        <v>15.6307520004798</v>
       </c>
       <c r="I17">
-        <v>6.329742666699163</v>
+        <v>6.329742666699261</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.41012391132404</v>
+        <v>30.41012391132408</v>
       </c>
       <c r="C18">
         <v>21.63122198314301</v>
@@ -1029,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.71521626693708</v>
+        <v>13.71521626693707</v>
       </c>
       <c r="F18">
-        <v>38.07290401981859</v>
+        <v>38.07290401981864</v>
       </c>
       <c r="G18">
-        <v>21.96158765508308</v>
+        <v>21.9615876550831</v>
       </c>
       <c r="H18">
         <v>15.53134341305489</v>
       </c>
       <c r="I18">
-        <v>6.373035003090422</v>
+        <v>6.37303500309045</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.37774064914532</v>
+        <v>18.37774064914531</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>30.27220230165514</v>
       </c>
       <c r="C19">
-        <v>21.53225276399102</v>
+        <v>21.53225276399103</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.65330291623485</v>
+        <v>13.6533029162349</v>
       </c>
       <c r="F19">
-        <v>37.88788179105165</v>
+        <v>37.88788179105166</v>
       </c>
       <c r="G19">
         <v>21.87896707597971</v>
       </c>
       <c r="H19">
-        <v>15.49849514519903</v>
+        <v>15.49849514519902</v>
       </c>
       <c r="I19">
-        <v>6.387973519187264</v>
+        <v>6.387973519187241</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.29553427052809</v>
+        <v>18.29553427052814</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.88945338387446</v>
+        <v>30.88945338387441</v>
       </c>
       <c r="C20">
-        <v>21.97541294793005</v>
+        <v>21.97541294793009</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.93039580030466</v>
+        <v>13.93039580030472</v>
       </c>
       <c r="F20">
-        <v>38.71725233857834</v>
+        <v>38.71725233857838</v>
       </c>
       <c r="G20">
-        <v>22.2526144826416</v>
+        <v>22.25261448264164</v>
       </c>
       <c r="H20">
-        <v>15.64953825374147</v>
+        <v>15.64953825374153</v>
       </c>
       <c r="I20">
-        <v>6.321867045099457</v>
+        <v>6.32186704509949</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.6635455569804</v>
+        <v>18.66354555698044</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.90499824493109</v>
+        <v>32.90499824493113</v>
       </c>
       <c r="C21">
-        <v>23.42683149570285</v>
+        <v>23.42683149570282</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1146,22 +1146,22 @@
         <v>14.83527017470868</v>
       </c>
       <c r="F21">
-        <v>41.44885462500321</v>
+        <v>41.44885462500323</v>
       </c>
       <c r="G21">
-        <v>23.83884287552668</v>
+        <v>23.83884287552676</v>
       </c>
       <c r="H21">
-        <v>16.2153427634919</v>
+        <v>16.21534276349198</v>
       </c>
       <c r="I21">
-        <v>6.121599559779522</v>
+        <v>6.121599559779479</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.86710464444875</v>
+        <v>19.86710464444872</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.1805712855425</v>
+        <v>34.18057128554254</v>
       </c>
       <c r="C22">
         <v>24.3489796765956</v>
@@ -1187,19 +1187,19 @@
         <v>43.1957275404171</v>
       </c>
       <c r="G22">
-        <v>24.92558925373705</v>
+        <v>24.9255892537371</v>
       </c>
       <c r="H22">
-        <v>16.63091777589254</v>
+        <v>16.63091777589257</v>
       </c>
       <c r="I22">
-        <v>6.010102493010905</v>
+        <v>6.010102493010852</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.63022821740349</v>
+        <v>20.63022821740345</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.50346858231465</v>
+        <v>33.5034685823146</v>
       </c>
       <c r="C23">
         <v>23.85912509205344</v>
@@ -1222,22 +1222,22 @@
         <v>15.10394637848448</v>
       </c>
       <c r="F23">
-        <v>42.26671952866067</v>
+        <v>42.26671952866065</v>
       </c>
       <c r="G23">
-        <v>24.34524228540782</v>
+        <v>24.34524228540785</v>
       </c>
       <c r="H23">
-        <v>16.40477844894639</v>
+        <v>16.4047784489464</v>
       </c>
       <c r="I23">
-        <v>6.067615382724775</v>
+        <v>6.067615382724723</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.22501009775161</v>
+        <v>20.22501009775156</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.85578061128773</v>
+        <v>30.85578061128765</v>
       </c>
       <c r="C24">
-        <v>21.95122159389501</v>
+        <v>21.95122159389486</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.91527916212886</v>
+        <v>13.91527916212894</v>
       </c>
       <c r="F24">
-        <v>38.67192003104537</v>
+        <v>38.6719200310454</v>
       </c>
       <c r="G24">
-        <v>22.23197360263335</v>
+        <v>22.23197360263332</v>
       </c>
       <c r="H24">
-        <v>15.64103023152085</v>
+        <v>15.64103023152084</v>
       </c>
       <c r="I24">
-        <v>6.325422229582323</v>
+        <v>6.325422229582382</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.64346244893028</v>
+        <v>18.6434624489303</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.80973307960869</v>
+        <v>27.80973307960876</v>
       </c>
       <c r="C25">
-        <v>19.77019677568953</v>
+        <v>19.77019677568947</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.54814524947337</v>
+        <v>12.54814524947329</v>
       </c>
       <c r="F25">
-        <v>34.61390319446203</v>
+        <v>34.61390319446209</v>
       </c>
       <c r="G25">
-        <v>20.49023940838914</v>
+        <v>20.49023940838923</v>
       </c>
       <c r="H25">
-        <v>14.99859617436516</v>
+        <v>14.9985961743652</v>
       </c>
       <c r="I25">
-        <v>6.668049367830556</v>
+        <v>6.668049367830495</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.83020178233603</v>
+        <v>16.83020178233593</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.3924270036474</v>
+        <v>25.39242700364738</v>
       </c>
       <c r="C2">
-        <v>18.04920900165834</v>
+        <v>18.04920900165835</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.46398661840867</v>
+        <v>11.46398661840865</v>
       </c>
       <c r="F2">
-        <v>31.45700625686143</v>
+        <v>31.45700625686142</v>
       </c>
       <c r="G2">
         <v>19.29314529009699</v>
       </c>
       <c r="H2">
-        <v>14.66369571618225</v>
+        <v>14.66369571618226</v>
       </c>
       <c r="I2">
-        <v>6.960161506116075</v>
+        <v>6.960161506116187</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.39643252980635</v>
+        <v>15.39643252980632</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.64052331965179</v>
+        <v>23.64052331965183</v>
       </c>
       <c r="C3">
-        <v>16.80714355308461</v>
+        <v>16.80714355308452</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.67893032725994</v>
+        <v>10.67893032725993</v>
       </c>
       <c r="F3">
-        <v>29.33785353781321</v>
+        <v>29.33785353781319</v>
       </c>
       <c r="G3">
         <v>18.5343687719413</v>
       </c>
       <c r="H3">
-        <v>14.51301360051816</v>
+        <v>14.51301360051814</v>
       </c>
       <c r="I3">
-        <v>7.177418041990504</v>
+        <v>7.177418041990477</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.36053438982807</v>
+        <v>14.36053438982805</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.50734856177761</v>
+        <v>22.50734856177764</v>
       </c>
       <c r="C4">
-        <v>16.00602384286634</v>
+        <v>16.00602384286649</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.17151783448653</v>
+        <v>10.17151783448647</v>
       </c>
       <c r="F4">
-        <v>28.02662373807591</v>
+        <v>28.02662373807594</v>
       </c>
       <c r="G4">
-        <v>18.09433517843486</v>
+        <v>18.09433517843479</v>
       </c>
       <c r="H4">
-        <v>14.45456588979279</v>
+        <v>14.45456588979265</v>
       </c>
       <c r="I4">
-        <v>7.318974219318367</v>
+        <v>7.318974219318108</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.69206801114945</v>
+        <v>13.69206801114947</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.03091668315507</v>
+        <v>22.03091668315511</v>
       </c>
       <c r="C5">
-        <v>15.66973358497859</v>
+        <v>15.66973358497854</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.958283797594246</v>
+        <v>9.958283797594232</v>
       </c>
       <c r="F5">
-        <v>27.4828250539876</v>
+        <v>27.48282505398763</v>
       </c>
       <c r="G5">
-        <v>17.92151930983696</v>
+        <v>17.921519309837</v>
       </c>
       <c r="H5">
-        <v>14.43876277060762</v>
+        <v>14.43876277060765</v>
       </c>
       <c r="I5">
-        <v>7.378549055268707</v>
+        <v>7.378549055268632</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.41141537905245</v>
+        <v>13.41141537905241</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.95091498968131</v>
+        <v>21.95091498968138</v>
       </c>
       <c r="C6">
-        <v>15.61329518793547</v>
+        <v>15.61329518793555</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.922484218605822</v>
+        <v>9.922484218605856</v>
       </c>
       <c r="F6">
-        <v>27.39196615814847</v>
+        <v>27.39196615814843</v>
       </c>
       <c r="G6">
-        <v>17.89321574902516</v>
+        <v>17.89321574902504</v>
       </c>
       <c r="H6">
-        <v>14.43660624361713</v>
+        <v>14.43660624361699</v>
       </c>
       <c r="I6">
-        <v>7.388551390765577</v>
+        <v>7.388551390765483</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.36431260549297</v>
+        <v>13.36431260549303</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.50098281808007</v>
+        <v>22.50098281808014</v>
       </c>
       <c r="C7">
-        <v>16.00152849364769</v>
+        <v>16.00152849364756</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.16866833543248</v>
+        <v>10.16866833543256</v>
       </c>
       <c r="F7">
-        <v>28.01932776048697</v>
+        <v>28.01932776048698</v>
       </c>
       <c r="G7">
-        <v>18.09197820927802</v>
+        <v>18.09197820927798</v>
       </c>
       <c r="H7">
-        <v>14.45432105556486</v>
+        <v>14.45432105556479</v>
       </c>
       <c r="I7">
-        <v>7.319770206969695</v>
+        <v>7.319770206969579</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.68831653973167</v>
+        <v>13.68831653973169</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.80018275823552</v>
+        <v>24.80018275823542</v>
       </c>
       <c r="C8">
-        <v>17.62883790138049</v>
+        <v>17.62883790138035</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.19851990608802</v>
+        <v>11.19851990608805</v>
       </c>
       <c r="F8">
-        <v>30.70396213580957</v>
+        <v>30.70396213580961</v>
       </c>
       <c r="G8">
-        <v>19.02615368694818</v>
+        <v>19.02615368694837</v>
       </c>
       <c r="H8">
-        <v>14.60434286068542</v>
+        <v>14.60434286068566</v>
       </c>
       <c r="I8">
-        <v>7.033269672066648</v>
+        <v>7.033269672066869</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.04592252824991</v>
+        <v>15.04592252824987</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.86222161005892</v>
+        <v>28.86222161005893</v>
       </c>
       <c r="C9">
-        <v>20.52218891634931</v>
+        <v>20.52218891634933</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.02043407059658</v>
+        <v>13.02043407059663</v>
       </c>
       <c r="F9">
-        <v>36.00632745934722</v>
+        <v>36.00632745934725</v>
       </c>
       <c r="G9">
-        <v>21.06351246215661</v>
+        <v>21.0635124621566</v>
       </c>
       <c r="H9">
-        <v>15.19230102477935</v>
+        <v>15.19230102477934</v>
       </c>
       <c r="I9">
-        <v>6.545560317959717</v>
+        <v>6.545560317959802</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.45593857841396</v>
+        <v>17.455938578414</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.58881756362427</v>
+        <v>31.58881756362432</v>
       </c>
       <c r="C10">
-        <v>22.47826952400567</v>
+        <v>22.47826952400563</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.24436809901373</v>
+        <v>14.24436809901374</v>
       </c>
       <c r="F10">
-        <v>39.66104948325144</v>
+        <v>39.6610494832515</v>
       </c>
       <c r="G10">
-        <v>22.74703841081476</v>
+        <v>22.74703841081481</v>
       </c>
       <c r="H10">
         <v>15.83325579158543</v>
       </c>
       <c r="I10">
-        <v>6.249469162901312</v>
+        <v>6.249469162901326</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.08084212517626</v>
+        <v>19.08084212517627</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.77686293462391</v>
+        <v>32.77686293462395</v>
       </c>
       <c r="C11">
         <v>23.33435618257915</v>
@@ -766,22 +766,22 @@
         <v>14.77774407949754</v>
       </c>
       <c r="F11">
-        <v>41.27414547148413</v>
+        <v>41.27414547148408</v>
       </c>
       <c r="G11">
         <v>23.73122424576253</v>
       </c>
       <c r="H11">
-        <v>16.17605882582066</v>
+        <v>16.17605882582064</v>
       </c>
       <c r="I11">
-        <v>6.133516372458235</v>
+        <v>6.133516372458115</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.7905067870779</v>
+        <v>19.79050678707788</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.21956364852171</v>
+        <v>33.21956364852176</v>
       </c>
       <c r="C12">
-        <v>23.65397389686448</v>
+        <v>23.65397389686436</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.97649202475825</v>
+        <v>14.97649202475829</v>
       </c>
       <c r="F12">
-        <v>41.87835474027423</v>
+        <v>41.87835474027428</v>
       </c>
       <c r="G12">
-        <v>24.10424484122951</v>
+        <v>24.10424484122956</v>
       </c>
       <c r="H12">
-        <v>16.3136903904553</v>
+        <v>16.31369039045529</v>
       </c>
       <c r="I12">
-        <v>6.092873078963797</v>
+        <v>6.092873078963753</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.12453399401264</v>
+        <v>33.12453399401268</v>
       </c>
       <c r="C13">
-        <v>23.58533646394476</v>
+        <v>23.58533646394472</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>41.74851400689258</v>
       </c>
       <c r="G13">
-        <v>24.02388730789079</v>
+        <v>24.02388730789081</v>
       </c>
       <c r="H13">
-        <v>16.28369402286197</v>
+        <v>16.28369402286198</v>
       </c>
       <c r="I13">
-        <v>6.101470709737675</v>
+        <v>6.101470709737684</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.99836646902562</v>
+        <v>19.99836646902559</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.81342615784461</v>
+        <v>32.81342615784467</v>
       </c>
       <c r="C14">
-        <v>23.36074099708678</v>
+        <v>23.36074099708669</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.79415909940803</v>
+        <v>14.79415909940804</v>
       </c>
       <c r="F14">
         <v>41.32398405878727</v>
       </c>
       <c r="G14">
-        <v>23.76190406200762</v>
+        <v>23.76190406200759</v>
       </c>
       <c r="H14">
-        <v>16.18722256436486</v>
+        <v>16.18722256436477</v>
       </c>
       <c r="I14">
-        <v>6.130103475655682</v>
+        <v>6.130103475655653</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.81236273862895</v>
+        <v>19.81236273862898</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.62193834512012</v>
+        <v>32.62193834512003</v>
       </c>
       <c r="C15">
-        <v>23.22258467869196</v>
+        <v>23.22258467869192</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.70819060429249</v>
+        <v>14.70819060429247</v>
       </c>
       <c r="F15">
-        <v>41.06309879277597</v>
+        <v>41.06309879277582</v>
       </c>
       <c r="G15">
-        <v>23.60148598474771</v>
+        <v>23.60148598474757</v>
       </c>
       <c r="H15">
         <v>16.12916269407609</v>
       </c>
       <c r="I15">
-        <v>6.148086143945221</v>
+        <v>6.148086143945291</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.69790948624117</v>
+        <v>19.69790948624114</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.51015132619204</v>
+        <v>31.51015132619215</v>
       </c>
       <c r="C16">
-        <v>22.42166705045591</v>
+        <v>22.42166705045586</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.20905106417507</v>
+        <v>14.20905106417512</v>
       </c>
       <c r="F16">
-        <v>39.55467339867407</v>
+        <v>39.55467339867415</v>
       </c>
       <c r="G16">
-        <v>22.68274639394167</v>
+        <v>22.68274639394177</v>
       </c>
       <c r="H16">
         <v>15.81192253849561</v>
       </c>
       <c r="I16">
-        <v>6.257470130111602</v>
+        <v>6.257470130111517</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.81493721069848</v>
+        <v>30.81493721069851</v>
       </c>
       <c r="C17">
-        <v>21.92188113260623</v>
+        <v>21.92188113260617</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.89694349214499</v>
+        <v>13.89694349214501</v>
       </c>
       <c r="F17">
         <v>38.61694774488152</v>
       </c>
       <c r="G17">
-        <v>22.20697692470936</v>
+        <v>22.20697692470928</v>
       </c>
       <c r="H17">
-        <v>15.6307520004798</v>
+        <v>15.63075200047968</v>
       </c>
       <c r="I17">
-        <v>6.329742666699261</v>
+        <v>6.329742666699163</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.41012391132408</v>
+        <v>30.41012391132404</v>
       </c>
       <c r="C18">
         <v>21.63122198314301</v>
@@ -1029,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.71521626693707</v>
+        <v>13.71521626693708</v>
       </c>
       <c r="F18">
-        <v>38.07290401981864</v>
+        <v>38.07290401981859</v>
       </c>
       <c r="G18">
-        <v>21.9615876550831</v>
+        <v>21.96158765508308</v>
       </c>
       <c r="H18">
         <v>15.53134341305489</v>
       </c>
       <c r="I18">
-        <v>6.37303500309045</v>
+        <v>6.373035003090422</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.37774064914531</v>
+        <v>18.37774064914532</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>30.27220230165514</v>
       </c>
       <c r="C19">
-        <v>21.53225276399103</v>
+        <v>21.53225276399102</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.6533029162349</v>
+        <v>13.65330291623485</v>
       </c>
       <c r="F19">
-        <v>37.88788179105166</v>
+        <v>37.88788179105165</v>
       </c>
       <c r="G19">
         <v>21.87896707597971</v>
       </c>
       <c r="H19">
-        <v>15.49849514519902</v>
+        <v>15.49849514519903</v>
       </c>
       <c r="I19">
-        <v>6.387973519187241</v>
+        <v>6.387973519187264</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.29553427052814</v>
+        <v>18.29553427052809</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.88945338387441</v>
+        <v>30.88945338387446</v>
       </c>
       <c r="C20">
-        <v>21.97541294793009</v>
+        <v>21.97541294793005</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.93039580030472</v>
+        <v>13.93039580030466</v>
       </c>
       <c r="F20">
-        <v>38.71725233857838</v>
+        <v>38.71725233857834</v>
       </c>
       <c r="G20">
-        <v>22.25261448264164</v>
+        <v>22.2526144826416</v>
       </c>
       <c r="H20">
-        <v>15.64953825374153</v>
+        <v>15.64953825374147</v>
       </c>
       <c r="I20">
-        <v>6.32186704509949</v>
+        <v>6.321867045099457</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.66354555698044</v>
+        <v>18.6635455569804</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.90499824493113</v>
+        <v>32.90499824493109</v>
       </c>
       <c r="C21">
-        <v>23.42683149570282</v>
+        <v>23.42683149570285</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1146,22 +1146,22 @@
         <v>14.83527017470868</v>
       </c>
       <c r="F21">
-        <v>41.44885462500323</v>
+        <v>41.44885462500321</v>
       </c>
       <c r="G21">
-        <v>23.83884287552676</v>
+        <v>23.83884287552668</v>
       </c>
       <c r="H21">
-        <v>16.21534276349198</v>
+        <v>16.2153427634919</v>
       </c>
       <c r="I21">
-        <v>6.121599559779479</v>
+        <v>6.121599559779522</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.86710464444872</v>
+        <v>19.86710464444875</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.18057128554254</v>
+        <v>34.1805712855425</v>
       </c>
       <c r="C22">
         <v>24.3489796765956</v>
@@ -1187,19 +1187,19 @@
         <v>43.1957275404171</v>
       </c>
       <c r="G22">
-        <v>24.9255892537371</v>
+        <v>24.92558925373705</v>
       </c>
       <c r="H22">
-        <v>16.63091777589257</v>
+        <v>16.63091777589254</v>
       </c>
       <c r="I22">
-        <v>6.010102493010852</v>
+        <v>6.010102493010905</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.63022821740345</v>
+        <v>20.63022821740349</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.5034685823146</v>
+        <v>33.50346858231465</v>
       </c>
       <c r="C23">
         <v>23.85912509205344</v>
@@ -1222,22 +1222,22 @@
         <v>15.10394637848448</v>
       </c>
       <c r="F23">
-        <v>42.26671952866065</v>
+        <v>42.26671952866067</v>
       </c>
       <c r="G23">
-        <v>24.34524228540785</v>
+        <v>24.34524228540782</v>
       </c>
       <c r="H23">
-        <v>16.4047784489464</v>
+        <v>16.40477844894639</v>
       </c>
       <c r="I23">
-        <v>6.067615382724723</v>
+        <v>6.067615382724775</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.22501009775156</v>
+        <v>20.22501009775161</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.85578061128765</v>
+        <v>30.85578061128773</v>
       </c>
       <c r="C24">
-        <v>21.95122159389486</v>
+        <v>21.95122159389501</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.91527916212894</v>
+        <v>13.91527916212886</v>
       </c>
       <c r="F24">
-        <v>38.6719200310454</v>
+        <v>38.67192003104537</v>
       </c>
       <c r="G24">
-        <v>22.23197360263332</v>
+        <v>22.23197360263335</v>
       </c>
       <c r="H24">
-        <v>15.64103023152084</v>
+        <v>15.64103023152085</v>
       </c>
       <c r="I24">
-        <v>6.325422229582382</v>
+        <v>6.325422229582323</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.6434624489303</v>
+        <v>18.64346244893028</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.80973307960876</v>
+        <v>27.80973307960869</v>
       </c>
       <c r="C25">
-        <v>19.77019677568947</v>
+        <v>19.77019677568953</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.54814524947329</v>
+        <v>12.54814524947337</v>
       </c>
       <c r="F25">
-        <v>34.61390319446209</v>
+        <v>34.61390319446203</v>
       </c>
       <c r="G25">
-        <v>20.49023940838923</v>
+        <v>20.49023940838914</v>
       </c>
       <c r="H25">
-        <v>14.9985961743652</v>
+        <v>14.99859617436516</v>
       </c>
       <c r="I25">
-        <v>6.668049367830495</v>
+        <v>6.668049367830556</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.83020178233593</v>
+        <v>16.83020178233603</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.39242700364738</v>
+        <v>25.39184585808035</v>
       </c>
       <c r="C2">
-        <v>18.04920900165835</v>
+        <v>18.04404975656977</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.46398661840865</v>
+        <v>11.46942557706846</v>
       </c>
       <c r="F2">
-        <v>31.45700625686142</v>
+        <v>31.44799285043724</v>
       </c>
       <c r="G2">
-        <v>19.29314529009699</v>
+        <v>18.31700424507263</v>
       </c>
       <c r="H2">
-        <v>14.66369571618226</v>
+        <v>19.3192280111954</v>
       </c>
       <c r="I2">
-        <v>6.960161506116187</v>
+        <v>14.64914358374204</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.956253550196538</v>
       </c>
       <c r="K2">
-        <v>15.39643252980632</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15.39888768433217</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.64052331965183</v>
+        <v>23.64015134596502</v>
       </c>
       <c r="C3">
-        <v>16.80714355308452</v>
+        <v>16.80252529665323</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.67893032725993</v>
+        <v>10.6839920884442</v>
       </c>
       <c r="F3">
-        <v>29.33785353781319</v>
+        <v>29.32946122269819</v>
       </c>
       <c r="G3">
-        <v>18.5343687719413</v>
+        <v>17.26067612418437</v>
       </c>
       <c r="H3">
-        <v>14.51301360051814</v>
+        <v>18.55964495290261</v>
       </c>
       <c r="I3">
-        <v>7.177418041990477</v>
+        <v>14.49973296897376</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.173801994322186</v>
       </c>
       <c r="K3">
-        <v>14.36053438982805</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>14.36286727085497</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.50734856177764</v>
+        <v>22.50710109159609</v>
       </c>
       <c r="C4">
-        <v>16.00602384286649</v>
+        <v>16.00174727420826</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.17151783448647</v>
+        <v>10.17633250697981</v>
       </c>
       <c r="F4">
-        <v>28.02662373807594</v>
+        <v>28.01858646002212</v>
       </c>
       <c r="G4">
-        <v>18.09433517843479</v>
+        <v>16.6217293742632</v>
       </c>
       <c r="H4">
-        <v>14.45456588979265</v>
+        <v>18.11919870431235</v>
       </c>
       <c r="I4">
-        <v>7.318974219318108</v>
+        <v>14.44207228661475</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.315513650662221</v>
       </c>
       <c r="K4">
-        <v>13.69206801114947</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>13.69431644871152</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.03091668315511</v>
+        <v>22.03071922409524</v>
       </c>
       <c r="C5">
-        <v>15.66973358497854</v>
+        <v>15.66559901868295</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.958283797594232</v>
+        <v>9.962993819119696</v>
       </c>
       <c r="F5">
-        <v>27.48282505398763</v>
+        <v>27.47493425960427</v>
       </c>
       <c r="G5">
-        <v>17.921519309837</v>
+        <v>16.36402934641548</v>
       </c>
       <c r="H5">
-        <v>14.43876277060765</v>
+        <v>17.94623535020924</v>
       </c>
       <c r="I5">
-        <v>7.378549055268632</v>
+        <v>14.42659050412862</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.375146740726122</v>
       </c>
       <c r="K5">
-        <v>13.41141537905241</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>13.41362710653515</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.95091498968138</v>
+        <v>21.95072579854815</v>
       </c>
       <c r="C6">
-        <v>15.61329518793555</v>
+        <v>15.6091843786093</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.922484218605856</v>
+        <v>9.927176621506108</v>
       </c>
       <c r="F6">
-        <v>27.39196615814843</v>
+        <v>27.3840998019644</v>
       </c>
       <c r="G6">
-        <v>17.89321574902504</v>
+        <v>16.32140858114377</v>
       </c>
       <c r="H6">
-        <v>14.43660624361699</v>
+        <v>17.91790854211363</v>
       </c>
       <c r="I6">
-        <v>7.388551390765483</v>
+        <v>14.42448734575604</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.385158464486101</v>
       </c>
       <c r="K6">
-        <v>13.36431260549303</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>13.3665180998593</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.50098281808014</v>
+        <v>22.50073602496538</v>
       </c>
       <c r="C7">
-        <v>16.00152849364756</v>
+        <v>15.99725382841387</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.16866833543256</v>
+        <v>10.17348161269955</v>
       </c>
       <c r="F7">
-        <v>28.01932776048698</v>
+        <v>28.0112924503954</v>
       </c>
       <c r="G7">
-        <v>18.09197820927798</v>
+        <v>16.61824273001928</v>
       </c>
       <c r="H7">
-        <v>14.45432105556479</v>
+        <v>18.11683966265139</v>
       </c>
       <c r="I7">
-        <v>7.319770206969579</v>
+        <v>14.44183178475842</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.316310443541385</v>
       </c>
       <c r="K7">
-        <v>13.68831653973169</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>13.69056449145105</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.80018275823542</v>
+        <v>24.79967471415769</v>
       </c>
       <c r="C8">
-        <v>17.62883790138035</v>
+        <v>17.62386343648123</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.19851990608805</v>
+        <v>11.20383198648712</v>
       </c>
       <c r="F8">
-        <v>30.70396213580961</v>
+        <v>30.69519651184288</v>
       </c>
       <c r="G8">
-        <v>19.02615368694837</v>
+        <v>17.95091118895825</v>
       </c>
       <c r="H8">
-        <v>14.60434286068566</v>
+        <v>19.05194117873178</v>
       </c>
       <c r="I8">
-        <v>7.033269672066869</v>
+        <v>14.59022721628903</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.029467849640812</v>
       </c>
       <c r="K8">
-        <v>15.04592252824987</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15.04833750552557</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.86222161005893</v>
+        <v>28.8611571372856</v>
       </c>
       <c r="C9">
-        <v>20.52218891634933</v>
+        <v>20.51590064115871</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.02043407059663</v>
+        <v>13.02660362375576</v>
       </c>
       <c r="F9">
-        <v>36.00632745934725</v>
+        <v>35.99609226748172</v>
       </c>
       <c r="G9">
-        <v>21.0635124621566</v>
+        <v>20.63356769428468</v>
       </c>
       <c r="H9">
-        <v>15.19230102477934</v>
+        <v>21.09176680005905</v>
       </c>
       <c r="I9">
-        <v>6.545560317959802</v>
+        <v>15.17509250286401</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.540854934126644</v>
       </c>
       <c r="K9">
-        <v>17.455938578414</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>17.45860340762397</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.58881756362432</v>
+        <v>31.58729693399729</v>
       </c>
       <c r="C10">
-        <v>22.47826952400563</v>
+        <v>22.47102618850308</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.24436809901374</v>
+        <v>14.25109615904347</v>
       </c>
       <c r="F10">
-        <v>39.6610494832515</v>
+        <v>39.64977053466876</v>
       </c>
       <c r="G10">
-        <v>22.74703841081481</v>
+        <v>22.77858269127847</v>
       </c>
       <c r="H10">
-        <v>15.83325579158543</v>
+        <v>22.71840666447422</v>
       </c>
       <c r="I10">
-        <v>6.249469162901326</v>
+        <v>15.81389375875987</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.2438897036809</v>
       </c>
       <c r="K10">
-        <v>19.08084212517627</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>19.08363706524551</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.77686293462395</v>
+        <v>32.77511900291492</v>
       </c>
       <c r="C11">
-        <v>23.33435618257915</v>
+        <v>23.32667409559469</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.77774407949754</v>
+        <v>14.78471088454727</v>
       </c>
       <c r="F11">
-        <v>41.27414547148408</v>
+        <v>41.26238524342976</v>
       </c>
       <c r="G11">
-        <v>23.73122424576253</v>
+        <v>23.76415270925055</v>
       </c>
       <c r="H11">
-        <v>16.17605882582064</v>
+        <v>23.56761239746415</v>
       </c>
       <c r="I11">
-        <v>6.133516372458115</v>
+        <v>16.15575282812558</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.127477366894969</v>
       </c>
       <c r="K11">
-        <v>19.79050678707788</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>19.79334745801082</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.21956364852176</v>
+        <v>33.21773232654373</v>
       </c>
       <c r="C12">
-        <v>23.65397389686436</v>
+        <v>23.64612440945855</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.97649202475829</v>
+        <v>14.98354702891426</v>
       </c>
       <c r="F12">
-        <v>41.87835474027428</v>
+        <v>41.86641065681108</v>
       </c>
       <c r="G12">
-        <v>24.10424484122956</v>
+        <v>24.13770120150772</v>
       </c>
       <c r="H12">
-        <v>16.31369039045529</v>
+        <v>23.91920665768535</v>
       </c>
       <c r="I12">
-        <v>6.092873078963753</v>
+        <v>16.2930325299004</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.086649810806671</v>
       </c>
       <c r="K12">
-        <v>20.05519537577185</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>20.05805122677067</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.12453399401268</v>
+        <v>33.12272162901247</v>
       </c>
       <c r="C13">
-        <v>23.58533646394472</v>
+        <v>23.57752309631746</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.93382944135906</v>
+        <v>14.94086554873709</v>
       </c>
       <c r="F13">
-        <v>41.74851400689258</v>
+        <v>41.73660960373866</v>
       </c>
       <c r="G13">
-        <v>24.02388730789081</v>
+        <v>24.05722981487786</v>
       </c>
       <c r="H13">
-        <v>16.28369402286198</v>
+        <v>23.84340603968381</v>
       </c>
       <c r="I13">
-        <v>6.101470709737684</v>
+        <v>16.26311168975256</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.095287601501355</v>
       </c>
       <c r="K13">
-        <v>19.99836646902559</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>20.0012191494977</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.81342615784467</v>
+        <v>32.81167509678906</v>
       </c>
       <c r="C14">
-        <v>23.36074099708669</v>
+        <v>23.35304516714598</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.79415909940804</v>
+        <v>14.80113320499902</v>
       </c>
       <c r="F14">
-        <v>41.32398405878727</v>
+        <v>41.31220874140993</v>
       </c>
       <c r="G14">
-        <v>23.76190406200759</v>
+        <v>23.79487588279686</v>
       </c>
       <c r="H14">
-        <v>16.18722256436477</v>
+        <v>23.59650339176309</v>
       </c>
       <c r="I14">
-        <v>6.130103475655653</v>
+        <v>16.16688750513321</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.124049523265907</v>
       </c>
       <c r="K14">
-        <v>19.81236273862898</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>19.81520470259103</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.62193834512003</v>
+        <v>32.62022444751454</v>
       </c>
       <c r="C15">
-        <v>23.22258467869192</v>
+        <v>23.21496065985665</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.70819060429247</v>
+        <v>14.71512644396688</v>
       </c>
       <c r="F15">
-        <v>41.06309879277582</v>
+        <v>41.05140231253966</v>
       </c>
       <c r="G15">
-        <v>23.60148598474757</v>
+        <v>23.63423122667524</v>
       </c>
       <c r="H15">
-        <v>16.12916269407609</v>
+        <v>23.44549248131878</v>
       </c>
       <c r="I15">
-        <v>6.148086143945291</v>
+        <v>16.10897983386544</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.142109931343798</v>
       </c>
       <c r="K15">
-        <v>19.69790948624114</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>19.70074460091986</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.51015132619215</v>
+        <v>31.50864492650218</v>
       </c>
       <c r="C16">
-        <v>22.42166705045586</v>
+        <v>22.41445224983852</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.20905106417512</v>
+        <v>14.21576321325088</v>
       </c>
       <c r="F16">
-        <v>39.55467339867415</v>
+        <v>39.5434257182281</v>
       </c>
       <c r="G16">
-        <v>22.68274639394177</v>
+        <v>22.71420075595418</v>
       </c>
       <c r="H16">
-        <v>15.81192253849561</v>
+        <v>22.66873999809336</v>
       </c>
       <c r="I16">
-        <v>6.257470130111517</v>
+        <v>15.79262296149963</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.251919341050765</v>
       </c>
       <c r="K16">
-        <v>19.03388633942176</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>19.03667800381655</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.81493721069851</v>
+        <v>30.81355369145153</v>
       </c>
       <c r="C17">
-        <v>21.92188113260617</v>
+        <v>21.91491585238848</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.89694349214501</v>
+        <v>13.90351449106837</v>
       </c>
       <c r="F17">
-        <v>38.61694774488152</v>
+        <v>38.60597329559958</v>
       </c>
       <c r="G17">
-        <v>22.20697692470928</v>
+        <v>22.15002133248117</v>
       </c>
       <c r="H17">
-        <v>15.63075200047968</v>
+        <v>22.2367631178045</v>
       </c>
       <c r="I17">
-        <v>6.329742666699163</v>
+        <v>15.6120038636114</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.32443602762099</v>
       </c>
       <c r="K17">
-        <v>18.61910372453904</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>18.62186515677698</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.41012391132404</v>
+        <v>30.40880962179126</v>
       </c>
       <c r="C18">
-        <v>21.63122198314301</v>
+        <v>21.62439986012216</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.71521626693708</v>
+        <v>13.72170463898573</v>
       </c>
       <c r="F18">
-        <v>38.07290401981859</v>
+        <v>38.06208616512234</v>
       </c>
       <c r="G18">
-        <v>21.96158765508308</v>
+        <v>21.82551156003022</v>
       </c>
       <c r="H18">
-        <v>15.53134341305489</v>
+        <v>21.99103915929128</v>
       </c>
       <c r="I18">
-        <v>6.373035003090422</v>
+        <v>15.51291579885862</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.367863043187534</v>
       </c>
       <c r="K18">
-        <v>18.37774064914532</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>18.38048344046855</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.27220230165514</v>
+        <v>30.27091121890007</v>
       </c>
       <c r="C19">
-        <v>21.53225276399102</v>
+        <v>21.52547906747525</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.65330291623485</v>
+        <v>13.65976306464712</v>
       </c>
       <c r="F19">
-        <v>37.88788179105165</v>
+        <v>37.87711687854434</v>
       </c>
       <c r="G19">
-        <v>21.87896707597971</v>
+        <v>21.71562906579928</v>
       </c>
       <c r="H19">
-        <v>15.49849514519903</v>
+        <v>21.90830655321476</v>
       </c>
       <c r="I19">
-        <v>6.387973519187264</v>
+        <v>15.48017660996047</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.382846213782874</v>
       </c>
       <c r="K19">
-        <v>18.29553427052809</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>18.29827054074123</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.88945338387446</v>
+        <v>30.88805693737904</v>
       </c>
       <c r="C20">
-        <v>21.97541294793005</v>
+        <v>21.96842114743248</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.93039580030466</v>
+        <v>13.93698197403173</v>
       </c>
       <c r="F20">
-        <v>38.71725233857834</v>
+        <v>38.70624886584004</v>
       </c>
       <c r="G20">
-        <v>22.2526144826416</v>
+        <v>22.21007821764013</v>
       </c>
       <c r="H20">
-        <v>15.64953825374147</v>
+        <v>22.28246323040833</v>
       </c>
       <c r="I20">
-        <v>6.321867045099457</v>
+        <v>15.63073106406622</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.31653502083526</v>
       </c>
       <c r="K20">
-        <v>18.6635455569804</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>18.66631033840059</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.90499824493109</v>
+        <v>32.90322925921699</v>
       </c>
       <c r="C21">
-        <v>23.42683149570285</v>
+        <v>23.41910118175643</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.83527017470868</v>
+        <v>14.84226255178534</v>
       </c>
       <c r="F21">
-        <v>41.44885462500321</v>
+        <v>41.43704144169499</v>
       </c>
       <c r="G21">
-        <v>23.83884287552668</v>
+        <v>23.87192347693931</v>
       </c>
       <c r="H21">
-        <v>16.2153427634919</v>
+        <v>23.6689773863964</v>
       </c>
       <c r="I21">
-        <v>6.121599559779522</v>
+        <v>16.19493492009009</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.115507959311264</v>
       </c>
       <c r="K21">
-        <v>19.86710464444875</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>19.86994981595417</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.1805712855425</v>
+        <v>34.17854198545069</v>
       </c>
       <c r="C22">
-        <v>24.3489796765956</v>
+        <v>24.34075901003369</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.40790535078812</v>
+        <v>15.41515031803773</v>
       </c>
       <c r="F22">
-        <v>43.1957275404171</v>
+        <v>43.18337537976048</v>
       </c>
       <c r="G22">
-        <v>24.92558925373705</v>
+        <v>24.96021291412938</v>
       </c>
       <c r="H22">
-        <v>16.63091777589254</v>
+        <v>24.69573577417184</v>
       </c>
       <c r="I22">
-        <v>6.010102493010905</v>
+        <v>16.60949638214143</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.003454247295849</v>
       </c>
       <c r="K22">
-        <v>20.63022821740349</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>20.63311334170691</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.50346858231465</v>
+        <v>33.50157997081573</v>
       </c>
       <c r="C23">
-        <v>23.85912509205344</v>
+        <v>23.85116707937763</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.10394637848448</v>
+        <v>15.11105771886025</v>
       </c>
       <c r="F23">
-        <v>42.26671952866067</v>
+        <v>42.25465618940635</v>
       </c>
       <c r="G23">
-        <v>24.34524228540782</v>
+        <v>24.37904050230803</v>
       </c>
       <c r="H23">
-        <v>16.40477844894639</v>
+        <v>24.14672632454097</v>
       </c>
       <c r="I23">
-        <v>6.067615382724775</v>
+        <v>16.38389496686785</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.0612701474131</v>
       </c>
       <c r="K23">
-        <v>20.22501009775161</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>20.22787512962138</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.85578061128773</v>
+        <v>30.8543900135708</v>
       </c>
       <c r="C24">
-        <v>21.95122159389501</v>
+        <v>21.94424178408905</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.91527916212886</v>
+        <v>13.92185847993042</v>
       </c>
       <c r="F24">
-        <v>38.67192003104537</v>
+        <v>38.66092968128758</v>
       </c>
       <c r="G24">
-        <v>22.23197360263335</v>
+        <v>22.18292700608327</v>
       </c>
       <c r="H24">
-        <v>15.64103023152085</v>
+        <v>22.26179404666156</v>
       </c>
       <c r="I24">
-        <v>6.325422229582323</v>
+        <v>15.62224972878086</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.320101699567163</v>
       </c>
       <c r="K24">
-        <v>18.64346244893028</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>18.6462257200956</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.80973307960869</v>
+        <v>27.80882580522527</v>
       </c>
       <c r="C25">
-        <v>19.77019677568953</v>
+        <v>19.76426014555541</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.54814524947337</v>
+        <v>12.5540954911203</v>
       </c>
       <c r="F25">
-        <v>34.61390319446203</v>
+        <v>34.60405039279296</v>
       </c>
       <c r="G25">
-        <v>20.49023940838914</v>
+        <v>19.90109256172131</v>
       </c>
       <c r="H25">
-        <v>14.99859617436516</v>
+        <v>20.51775777992377</v>
       </c>
       <c r="I25">
-        <v>6.668049367830556</v>
+        <v>14.98220752940565</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.663620019365861</v>
       </c>
       <c r="K25">
-        <v>16.83020178233603</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>16.83280788159329</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.39184585808035</v>
+        <v>25.45137055322092</v>
       </c>
       <c r="C2">
-        <v>18.04404975656977</v>
+        <v>13.5898318135233</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.46942557706846</v>
+        <v>5.341677778193983</v>
       </c>
       <c r="F2">
-        <v>31.44799285043724</v>
+        <v>41.12766466486511</v>
       </c>
       <c r="G2">
-        <v>18.31700424507263</v>
+        <v>2.117519045291631</v>
       </c>
       <c r="H2">
-        <v>19.3192280111954</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>14.64914358374204</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.956253550196538</v>
+        <v>6.499564745621544</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.54018132480488</v>
       </c>
       <c r="L2">
-        <v>15.39888768433217</v>
+        <v>6.817538926994163</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>15.43244126895818</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.64015134596502</v>
+        <v>23.96874020863833</v>
       </c>
       <c r="C3">
-        <v>16.80252529665323</v>
+        <v>12.59427951872314</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.6839920884442</v>
+        <v>5.30776046172317</v>
       </c>
       <c r="F3">
-        <v>29.32946122269819</v>
+        <v>39.75556062468939</v>
       </c>
       <c r="G3">
-        <v>17.26067612418437</v>
+        <v>2.129756736428049</v>
       </c>
       <c r="H3">
-        <v>18.55964495290261</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>14.49973296897376</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.173801994322186</v>
+        <v>6.580179360876463</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.34564414759172</v>
       </c>
       <c r="L3">
-        <v>14.36286727085497</v>
+        <v>6.666059037433382</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>15.60435840368771</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.50710109159609</v>
+        <v>23.03502265651606</v>
       </c>
       <c r="C4">
-        <v>16.00174727420826</v>
+        <v>11.9543423195817</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.17633250697981</v>
+        <v>5.288373973576733</v>
       </c>
       <c r="F4">
-        <v>28.01858646002212</v>
+        <v>38.92856078230885</v>
       </c>
       <c r="G4">
-        <v>16.6217293742632</v>
+        <v>2.137426111893815</v>
       </c>
       <c r="H4">
-        <v>18.11919870431235</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>14.44207228661475</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.315513650662221</v>
+        <v>6.631421220931474</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.59421045874054</v>
       </c>
       <c r="L4">
-        <v>13.69431644871152</v>
+        <v>6.575298515216295</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>15.71499066369381</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.03071922409524</v>
+        <v>22.64893254295509</v>
       </c>
       <c r="C5">
-        <v>15.66559901868295</v>
+        <v>11.68619428233521</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.962993819119696</v>
+        <v>5.280802858593393</v>
       </c>
       <c r="F5">
-        <v>27.47493425960427</v>
+        <v>38.5956314232626</v>
       </c>
       <c r="G5">
-        <v>16.36402934641548</v>
+        <v>2.140593848442474</v>
       </c>
       <c r="H5">
-        <v>17.94623535020924</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>14.42659050412862</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.375146740726122</v>
+        <v>6.652739730609533</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.28370084292576</v>
       </c>
       <c r="L5">
-        <v>13.41362710653515</v>
+        <v>6.538906162640893</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>15.76130878155383</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.95072579854815</v>
+        <v>22.58449504600875</v>
       </c>
       <c r="C6">
-        <v>15.6091843786093</v>
+        <v>11.641219007513</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.927176621506108</v>
+        <v>5.27956466342078</v>
       </c>
       <c r="F6">
-        <v>27.3840998019644</v>
+        <v>38.54060118682992</v>
       </c>
       <c r="G6">
-        <v>16.32140858114377</v>
+        <v>2.141122501939245</v>
       </c>
       <c r="H6">
-        <v>17.91790854211363</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>14.42448734575604</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.385158464486101</v>
+        <v>6.656306024845918</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.23188979868074</v>
       </c>
       <c r="L6">
-        <v>13.3665180998593</v>
+        <v>6.532899904480622</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>15.76907333586739</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.50073602496538</v>
+        <v>23.02983790580563</v>
       </c>
       <c r="C7">
-        <v>15.99725382841387</v>
+        <v>11.95075601949795</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.17348161269955</v>
+        <v>5.288270575316957</v>
       </c>
       <c r="F7">
-        <v>28.0112924503954</v>
+        <v>38.9240539926046</v>
       </c>
       <c r="G7">
-        <v>16.61824273001928</v>
+        <v>2.137468657200968</v>
       </c>
       <c r="H7">
-        <v>18.11683966265139</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>14.44183178475842</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.316310443541385</v>
+        <v>6.631706961472362</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.59003984590537</v>
       </c>
       <c r="L7">
-        <v>13.69056449145105</v>
+        <v>6.574805275496599</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>15.7156103776863</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.79967471415769</v>
+        <v>24.94515277598208</v>
       </c>
       <c r="C8">
-        <v>17.62386343648123</v>
+        <v>13.25241384467727</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.20383198648712</v>
+        <v>5.329663524264143</v>
       </c>
       <c r="F8">
-        <v>30.69519651184288</v>
+        <v>40.65145309761712</v>
       </c>
       <c r="G8">
-        <v>17.95091118895825</v>
+        <v>2.12170844814897</v>
       </c>
       <c r="H8">
-        <v>19.05194117873178</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>14.59022721628903</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.029467849640812</v>
+        <v>6.526997364661254</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.13214944445254</v>
       </c>
       <c r="L8">
-        <v>15.04833750552557</v>
+        <v>6.764858210712886</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>15.49063823154502</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.8611571372856</v>
+        <v>28.50803564807108</v>
       </c>
       <c r="C9">
-        <v>20.51590064115871</v>
+        <v>15.58550706797874</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.02660362375576</v>
+        <v>5.423952962672105</v>
       </c>
       <c r="F9">
-        <v>35.99609226748172</v>
+        <v>44.15566338491516</v>
       </c>
       <c r="G9">
-        <v>20.63356769428468</v>
+        <v>2.091868511665995</v>
       </c>
       <c r="H9">
-        <v>21.09176680005905</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>15.17509250286401</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6.540854934126644</v>
+        <v>6.335642044417868</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.02500706874875</v>
       </c>
       <c r="L9">
-        <v>17.45860340762397</v>
+        <v>7.154280187801808</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>15.09195352555703</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.58729693399729</v>
+        <v>31.00464924358336</v>
       </c>
       <c r="C10">
-        <v>22.47102618850308</v>
+        <v>17.17826144511758</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.25109615904347</v>
+        <v>5.50400393630236</v>
       </c>
       <c r="F10">
-        <v>39.64977053466876</v>
+        <v>46.79784669830599</v>
       </c>
       <c r="G10">
-        <v>22.77858269127847</v>
+        <v>2.070332052245846</v>
       </c>
       <c r="H10">
-        <v>22.71840666447422</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>15.81389375875987</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6.2438897036809</v>
+        <v>6.203917963536751</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.32706453797118</v>
       </c>
       <c r="L10">
-        <v>19.08363706524551</v>
+        <v>7.449357678444395</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>14.82868912027674</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.77511900291492</v>
+        <v>32.17473125471538</v>
       </c>
       <c r="C11">
-        <v>23.32667409559469</v>
+        <v>17.87968384433588</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.78471088454727</v>
+        <v>5.54352303364435</v>
       </c>
       <c r="F11">
-        <v>41.26238524342976</v>
+        <v>48.01535313514789</v>
       </c>
       <c r="G11">
-        <v>23.76415270925055</v>
+        <v>2.060550107365809</v>
       </c>
       <c r="H11">
-        <v>23.56761239746415</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>16.15575282812558</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.127477366894969</v>
+        <v>6.146052557864776</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.33955966644973</v>
       </c>
       <c r="L11">
-        <v>19.79334745801082</v>
+        <v>7.585383165417607</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>14.71643091535425</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.21773232654373</v>
+        <v>32.62387111959109</v>
       </c>
       <c r="C12">
-        <v>23.64612440945855</v>
+        <v>18.14227569570963</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.98354702891426</v>
+        <v>5.559011611002598</v>
       </c>
       <c r="F12">
-        <v>41.86641065681108</v>
+        <v>48.47882141297595</v>
       </c>
       <c r="G12">
-        <v>24.13770120150772</v>
+        <v>2.056841443066795</v>
       </c>
       <c r="H12">
-        <v>23.91920665768535</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>16.2930325299004</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6.086649810806671</v>
+        <v>6.124453278702472</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.7183221778455</v>
       </c>
       <c r="L12">
-        <v>20.05805122677067</v>
+        <v>7.637145351368196</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>14.67511250072471</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.12272162901247</v>
+        <v>32.52735895595156</v>
       </c>
       <c r="C13">
-        <v>23.57752309631746</v>
+        <v>18.08585092175492</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.94086554873709</v>
+        <v>5.555651204865864</v>
       </c>
       <c r="F13">
-        <v>41.73660960373866</v>
+        <v>48.37889316686662</v>
       </c>
       <c r="G13">
-        <v>24.05722981487786</v>
+        <v>2.057640484298263</v>
       </c>
       <c r="H13">
-        <v>23.84340603968381</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>16.26311168975256</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6.095287601501355</v>
+        <v>6.129090808424332</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.63694946534957</v>
       </c>
       <c r="L13">
-        <v>20.0012191494977</v>
+        <v>7.625986219455569</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>14.6839561542961</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.81167509678906</v>
+        <v>32.21178113584891</v>
       </c>
       <c r="C14">
-        <v>23.35304516714598</v>
+        <v>17.90134609563843</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.80113320499902</v>
+        <v>5.54478630380354</v>
       </c>
       <c r="F14">
-        <v>41.31220874140993</v>
+        <v>48.0534328696363</v>
       </c>
       <c r="G14">
-        <v>23.79487588279686</v>
+        <v>2.060245123986753</v>
       </c>
       <c r="H14">
-        <v>23.59650339176309</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>16.16688750513321</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.124049523265907</v>
+        <v>6.144269177989544</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.37081164206077</v>
       </c>
       <c r="L14">
-        <v>19.81520470259103</v>
+        <v>7.589636618423246</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>14.71300702784585</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.62022444751454</v>
+        <v>32.01783516916087</v>
       </c>
       <c r="C15">
-        <v>23.21496065985665</v>
+        <v>17.78794781851648</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.71512644396688</v>
+        <v>5.538201946515468</v>
       </c>
       <c r="F15">
-        <v>41.05140231253966</v>
+        <v>47.85440234096171</v>
       </c>
       <c r="G15">
-        <v>23.63423122667524</v>
+        <v>2.06183974792155</v>
       </c>
       <c r="H15">
-        <v>23.44549248131878</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>16.10897983386544</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6.142109931343798</v>
+        <v>6.153607751227037</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.20720054707625</v>
       </c>
       <c r="L15">
-        <v>19.70074460091986</v>
+        <v>7.56740426558884</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>14.73096037471275</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.50864492650218</v>
+        <v>30.93157763073581</v>
       </c>
       <c r="C16">
-        <v>22.41445224983852</v>
+        <v>17.131981500985</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.21576321325088</v>
+        <v>5.501490024390952</v>
       </c>
       <c r="F16">
-        <v>39.5434257182281</v>
+        <v>46.71860641310684</v>
       </c>
       <c r="G16">
-        <v>22.71420075595418</v>
+        <v>2.07097108413478</v>
       </c>
       <c r="H16">
-        <v>22.66873999809336</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>15.79262296149963</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6.251919341050765</v>
+        <v>6.207742349803469</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.26022515953709</v>
       </c>
       <c r="L16">
-        <v>19.03667800381655</v>
+        <v>7.440503520857261</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>14.8361855696622</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.81355369145153</v>
+        <v>30.28840858513962</v>
       </c>
       <c r="C17">
-        <v>21.91491585238848</v>
+        <v>16.72384726960427</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.90351449106837</v>
+        <v>5.479814225152632</v>
       </c>
       <c r="F17">
-        <v>38.60597329559958</v>
+        <v>46.02591704011981</v>
       </c>
       <c r="G17">
-        <v>22.15002133248117</v>
+        <v>2.076572305273039</v>
       </c>
       <c r="H17">
-        <v>22.2367631178045</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>15.6120038636114</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.32443602762099</v>
+        <v>6.241489620724497</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.67062162107156</v>
       </c>
       <c r="L17">
-        <v>18.62186515677698</v>
+        <v>7.363106902399566</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>14.90273298449295</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.40880962179126</v>
+        <v>29.91609475592012</v>
       </c>
       <c r="C18">
-        <v>21.62439986012216</v>
+        <v>16.48690172422508</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.72170463898573</v>
+        <v>5.467633651571282</v>
       </c>
       <c r="F18">
-        <v>38.06208616512234</v>
+        <v>45.62894785523408</v>
       </c>
       <c r="G18">
-        <v>21.82551156003022</v>
+        <v>2.07979584843985</v>
       </c>
       <c r="H18">
-        <v>21.99103915929128</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>15.51291579885862</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.367863043187534</v>
+        <v>6.261092406666738</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.32820514048801</v>
       </c>
       <c r="L18">
-        <v>18.38048344046855</v>
+        <v>7.318759095362163</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>14.94170756043266</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.27091121890007</v>
+        <v>29.78962218720582</v>
       </c>
       <c r="C19">
-        <v>21.52547906747525</v>
+        <v>16.40628999118071</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.65976306464712</v>
+        <v>5.46355663028918</v>
       </c>
       <c r="F19">
-        <v>37.87711687854434</v>
+        <v>45.49478561189805</v>
       </c>
       <c r="G19">
-        <v>21.71562906579928</v>
+        <v>2.080887792598801</v>
       </c>
       <c r="H19">
-        <v>21.90830655321476</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>15.48017660996047</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>6.382846213782874</v>
+        <v>6.267762148195471</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.21169375545599</v>
       </c>
       <c r="L19">
-        <v>18.29827054074123</v>
+        <v>7.303772958306719</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>14.95502051213212</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.88805693737904</v>
+        <v>30.35712016095095</v>
       </c>
       <c r="C20">
-        <v>21.96842114743248</v>
+        <v>16.76751921732918</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.93698197403173</v>
+        <v>5.482091453624818</v>
       </c>
       <c r="F20">
-        <v>38.70624886584004</v>
+        <v>46.0995042054307</v>
       </c>
       <c r="G20">
-        <v>22.21007821764013</v>
+        <v>2.075975897304144</v>
       </c>
       <c r="H20">
-        <v>22.28246323040833</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>15.63073106406622</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6.31653502083526</v>
+        <v>6.237877160372961</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.73372432155079</v>
       </c>
       <c r="L20">
-        <v>18.66631033840059</v>
+        <v>7.371328512363161</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>14.89557588158418</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.90322925921699</v>
+        <v>32.30460780316008</v>
       </c>
       <c r="C21">
-        <v>23.41910118175643</v>
+        <v>17.95561900278401</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.84226255178534</v>
+        <v>5.547962695342103</v>
       </c>
       <c r="F21">
-        <v>41.43704144169499</v>
+        <v>48.14896057522451</v>
       </c>
       <c r="G21">
-        <v>23.87192347693931</v>
+        <v>2.059480256665554</v>
       </c>
       <c r="H21">
-        <v>23.6689773863964</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>16.19493492009009</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.115507959311264</v>
+        <v>6.139802259572963</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.44910586035481</v>
       </c>
       <c r="L21">
-        <v>19.86994981595417</v>
+        <v>7.600306534491338</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>14.70444074681351</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.17854198545069</v>
+        <v>33.60292817105098</v>
       </c>
       <c r="C22">
-        <v>24.34075901003369</v>
+        <v>18.71467237012413</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.41515031803773</v>
+        <v>5.594111370240428</v>
       </c>
       <c r="F22">
-        <v>43.18337537976048</v>
+        <v>49.50270584674094</v>
       </c>
       <c r="G22">
-        <v>24.96021291412938</v>
+        <v>2.048669631901765</v>
       </c>
       <c r="H22">
-        <v>24.69573577417184</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>16.60949638214143</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>6.003454247295849</v>
+        <v>6.077541937471439</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.54332168045211</v>
       </c>
       <c r="L22">
-        <v>20.63311334170691</v>
+        <v>7.751430937297495</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>14.58653524278471</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.50157997081573</v>
+        <v>32.91253031216227</v>
       </c>
       <c r="C23">
-        <v>23.85116707937763</v>
+        <v>18.31103481120737</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.11105771886025</v>
+        <v>5.569168218939588</v>
       </c>
       <c r="F23">
-        <v>42.25465618940635</v>
+        <v>48.77878498677509</v>
       </c>
       <c r="G23">
-        <v>24.37904050230803</v>
+        <v>2.054444640683596</v>
       </c>
       <c r="H23">
-        <v>24.14672632454097</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>16.38389496686785</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>6.0612701474131</v>
+        <v>6.110596071584035</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.96164842105158</v>
       </c>
       <c r="L23">
-        <v>20.22787512962138</v>
+        <v>7.670637785438536</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>14.64877905095949</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.8543900135708</v>
+        <v>30.32606360627884</v>
       </c>
       <c r="C24">
-        <v>21.94424178408905</v>
+        <v>16.74778232778823</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.92185847993042</v>
+        <v>5.48106104859635</v>
       </c>
       <c r="F24">
-        <v>38.66092968128758</v>
+        <v>46.06623151365358</v>
       </c>
       <c r="G24">
-        <v>22.18292700608327</v>
+        <v>2.076245522498734</v>
       </c>
       <c r="H24">
-        <v>22.26179404666156</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>15.62224972878086</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>6.320101699567163</v>
+        <v>6.239509728785871</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.70520634812949</v>
       </c>
       <c r="L24">
-        <v>18.6462257200956</v>
+        <v>7.367611059285966</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>14.89880938719518</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.80882580522527</v>
+        <v>27.56552851394485</v>
       </c>
       <c r="C25">
-        <v>19.76426014555541</v>
+        <v>14.97663840637832</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.5540954911203</v>
+        <v>5.396779470700539</v>
       </c>
       <c r="F25">
-        <v>34.60405039279296</v>
+        <v>43.19579216709514</v>
       </c>
       <c r="G25">
-        <v>19.90109256172131</v>
+        <v>2.099852144513806</v>
       </c>
       <c r="H25">
-        <v>20.51775777992377</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>14.98220752940565</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>6.663620019365861</v>
+        <v>6.38588596922193</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.2461515184787</v>
       </c>
       <c r="L25">
-        <v>16.83280788159329</v>
+        <v>7.047282216847947</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>15.19491456098217</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.45137055322092</v>
+        <v>20.6375770297039</v>
       </c>
       <c r="C2">
-        <v>13.5898318135233</v>
+        <v>14.31330855462245</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.341677778193983</v>
+        <v>16.74652930266611</v>
       </c>
       <c r="F2">
-        <v>41.12766466486511</v>
+        <v>27.14179065459062</v>
       </c>
       <c r="G2">
-        <v>2.117519045291631</v>
+        <v>14.01022906544626</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.69668494650773</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.499564745621544</v>
+        <v>4.45155060859928</v>
       </c>
       <c r="K2">
-        <v>20.54018132480488</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.817538926994163</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.87710024418434</v>
       </c>
       <c r="N2">
-        <v>15.43244126895818</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>9.978469956186876</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.96874020863833</v>
+        <v>19.34603654244449</v>
       </c>
       <c r="C3">
-        <v>12.59427951872314</v>
+        <v>13.57687142068194</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.30776046172317</v>
+        <v>16.19774920776725</v>
       </c>
       <c r="F3">
-        <v>39.75556062468939</v>
+        <v>26.30959102113002</v>
       </c>
       <c r="G3">
-        <v>2.129756736428049</v>
+        <v>13.8145311489379</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.82389358053087</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.580179360876463</v>
+        <v>4.49299801095199</v>
       </c>
       <c r="K3">
-        <v>19.34564414759172</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.666059037433382</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.78909826894803</v>
       </c>
       <c r="N3">
-        <v>15.60435840368771</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.11572566012132</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.03502265651606</v>
+        <v>18.50807333246546</v>
       </c>
       <c r="C4">
-        <v>11.9543423195817</v>
+        <v>13.10476255640001</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.288373973576733</v>
+        <v>15.86250501977592</v>
       </c>
       <c r="F4">
-        <v>38.92856078230885</v>
+        <v>25.81560903500706</v>
       </c>
       <c r="G4">
-        <v>2.137426111893815</v>
+        <v>13.73513102171769</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.908401215634524</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.631421220931474</v>
+        <v>4.519439047671383</v>
       </c>
       <c r="K4">
-        <v>18.59421045874054</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.575298515216295</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>17.09042133291005</v>
       </c>
       <c r="N4">
-        <v>15.71499066369381</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.21716575941423</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.64893254295509</v>
+        <v>18.15531630733356</v>
       </c>
       <c r="C5">
-        <v>11.68619428233521</v>
+        <v>12.90751225813059</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.280802858593393</v>
+        <v>15.72649233828117</v>
       </c>
       <c r="F5">
-        <v>38.5956314232626</v>
+        <v>25.61879474155568</v>
       </c>
       <c r="G5">
-        <v>2.140593848442474</v>
+        <v>13.71260426569256</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.944373198454337</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.652739730609533</v>
+        <v>4.530465150495291</v>
       </c>
       <c r="K5">
-        <v>18.28370084292576</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.538906162640893</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.79819047283819</v>
       </c>
       <c r="N5">
-        <v>15.76130878155383</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.26253765472462</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.58449504600875</v>
+        <v>18.09606107143566</v>
       </c>
       <c r="C6">
-        <v>11.641219007513</v>
+        <v>12.87447035212322</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.27956466342078</v>
+        <v>15.70394913429165</v>
       </c>
       <c r="F6">
-        <v>38.54060118682992</v>
+        <v>25.58639102196787</v>
       </c>
       <c r="G6">
-        <v>2.141122501939245</v>
+        <v>13.70944354300064</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.950436933475585</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.656306024845918</v>
+        <v>4.532311245609053</v>
       </c>
       <c r="K6">
-        <v>18.23188979868074</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.532899904480622</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.7492184218807</v>
       </c>
       <c r="N6">
-        <v>15.76907333586739</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.27030730601371</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.02983790580563</v>
+        <v>18.50336155520182</v>
       </c>
       <c r="C7">
-        <v>11.95075601949795</v>
+        <v>13.10212183470546</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.288270575316957</v>
+        <v>15.86066803212834</v>
       </c>
       <c r="F7">
-        <v>38.9240539926046</v>
+        <v>25.81293628112923</v>
       </c>
       <c r="G7">
-        <v>2.137468657200968</v>
+        <v>13.73478803371459</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.908880227587851</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.631706961472362</v>
+        <v>4.519586730350609</v>
       </c>
       <c r="K7">
-        <v>18.59003984590537</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.574805275496599</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>17.08651034418517</v>
       </c>
       <c r="N7">
-        <v>15.7156103776863</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.2177616886289</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.94515277598208</v>
+        <v>20.20159143263583</v>
       </c>
       <c r="C8">
-        <v>13.25241384467727</v>
+        <v>14.0636029941692</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.329663524264143</v>
+        <v>16.55705503895397</v>
       </c>
       <c r="F8">
-        <v>40.65145309761712</v>
+        <v>26.85145172777276</v>
       </c>
       <c r="G8">
-        <v>2.12170844814897</v>
+        <v>13.93406720797993</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.73917045936925</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.526997364661254</v>
+        <v>4.465636759606341</v>
       </c>
       <c r="K8">
-        <v>20.13214944445254</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.764858210712886</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.50841615726874</v>
       </c>
       <c r="N8">
-        <v>15.49063823154502</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.02205951115942</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.50803564807108</v>
+        <v>23.1751086053111</v>
       </c>
       <c r="C9">
-        <v>15.58550706797874</v>
+        <v>15.78577938471975</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.423952962672105</v>
+        <v>17.92933041628601</v>
       </c>
       <c r="F9">
-        <v>44.15566338491516</v>
+        <v>29.01337257944736</v>
       </c>
       <c r="G9">
-        <v>2.091868511665995</v>
+        <v>14.66219046179742</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.460934057260988</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.335642044417868</v>
+        <v>4.36763713899056</v>
       </c>
       <c r="K9">
-        <v>23.02500706874875</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>7.154280187801808</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>21.04753591381863</v>
       </c>
       <c r="N9">
-        <v>15.09195352555703</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>9.78771763836302</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.00464924358336</v>
+        <v>25.14340572572485</v>
       </c>
       <c r="C10">
-        <v>17.17826144511758</v>
+        <v>16.94643326926216</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.50400393630236</v>
+        <v>18.93353097480813</v>
       </c>
       <c r="F10">
-        <v>46.79784669830599</v>
+        <v>30.66626923192294</v>
       </c>
       <c r="G10">
-        <v>2.070332052245846</v>
+        <v>15.41471992734765</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.295642114137941</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.203917963536751</v>
+        <v>4.300283823695988</v>
       </c>
       <c r="K10">
-        <v>25.32706453797118</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>7.449357678444395</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>22.86897339145271</v>
       </c>
       <c r="N10">
-        <v>14.82868912027674</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>9.72539627775776</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.17473125471538</v>
+        <v>25.99234628859055</v>
       </c>
       <c r="C11">
-        <v>17.87968384433588</v>
+        <v>17.45107222292178</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.54352303364435</v>
+        <v>19.38815656694091</v>
       </c>
       <c r="F11">
-        <v>48.01535313514789</v>
+        <v>31.43006177752961</v>
       </c>
       <c r="G11">
-        <v>2.060550107365809</v>
+        <v>15.80498524248576</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.23042766475464</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.146052557864776</v>
+        <v>4.270630067697325</v>
       </c>
       <c r="K11">
-        <v>26.33955966644973</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>7.585383165417607</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>23.68015202009948</v>
       </c>
       <c r="N11">
-        <v>14.71643091535425</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>9.725002214006761</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.62387111959109</v>
+        <v>26.30718945030204</v>
       </c>
       <c r="C12">
-        <v>18.14227569570963</v>
+        <v>17.63877528406389</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.559011611002598</v>
+        <v>19.55991044641004</v>
       </c>
       <c r="F12">
-        <v>48.47882141297595</v>
+        <v>31.72085097805074</v>
       </c>
       <c r="G12">
-        <v>2.056841443066795</v>
+        <v>15.95961427000335</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.207306709080502</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.124453278702472</v>
+        <v>4.259541053516219</v>
       </c>
       <c r="K12">
-        <v>26.7183221778455</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>7.637145351368196</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.98102898855702</v>
       </c>
       <c r="N12">
-        <v>14.67511250072471</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>9.729205959362952</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.52735895595156</v>
+        <v>26.23967647788222</v>
       </c>
       <c r="C13">
-        <v>18.08585092175492</v>
+        <v>17.59850137745145</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.555651204865864</v>
+        <v>19.52293927924431</v>
       </c>
       <c r="F13">
-        <v>48.37889316686662</v>
+        <v>31.65815711894438</v>
       </c>
       <c r="G13">
-        <v>2.057640484298263</v>
+        <v>15.92600910836304</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.212213841065991</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.129090808424332</v>
+        <v>4.261923058162929</v>
       </c>
       <c r="K13">
-        <v>26.63694946534957</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>7.625986219455569</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.91650852904015</v>
       </c>
       <c r="N13">
-        <v>14.6839561542961</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>9.72810182607693</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.21178113584891</v>
+        <v>26.01838124665404</v>
       </c>
       <c r="C14">
-        <v>17.90134609563843</v>
+        <v>17.46658281456585</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.54478630380354</v>
+        <v>19.40229536886511</v>
       </c>
       <c r="F14">
-        <v>48.0534328696363</v>
+        <v>31.45395471846791</v>
       </c>
       <c r="G14">
-        <v>2.060245123986753</v>
+        <v>15.81756997688624</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.228493092242545</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.144269177989544</v>
+        <v>4.269714966030303</v>
       </c>
       <c r="K14">
-        <v>26.37081164206077</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>7.589636618423246</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>23.7050310979907</v>
       </c>
       <c r="N14">
-        <v>14.71300702784585</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>9.725258950525891</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.01783516916087</v>
+        <v>25.88196935039984</v>
       </c>
       <c r="C15">
-        <v>17.78794781851648</v>
+        <v>17.3853362434226</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.538201946515468</v>
+        <v>19.32834275138457</v>
       </c>
       <c r="F15">
-        <v>47.85440234096171</v>
+        <v>31.32907373849583</v>
       </c>
       <c r="G15">
-        <v>2.06183974792155</v>
+        <v>15.75203676762202</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.238673992065129</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.153607751227037</v>
+        <v>4.27450595165041</v>
       </c>
       <c r="K15">
-        <v>26.20720054707625</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>7.56740426558884</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>23.57467730252965</v>
       </c>
       <c r="N15">
-        <v>14.73096037471275</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>9.724094191689961</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.93157763073581</v>
+        <v>25.08699463899442</v>
       </c>
       <c r="C16">
-        <v>17.131981500985</v>
+        <v>16.91298075153112</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.501490024390952</v>
+        <v>18.90376805862691</v>
       </c>
       <c r="F16">
-        <v>46.71860641310684</v>
+        <v>30.61657907393557</v>
       </c>
       <c r="G16">
-        <v>2.07097108413478</v>
+        <v>15.39017688725709</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.300116444980095</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.207742349803469</v>
+        <v>4.302241468858804</v>
       </c>
       <c r="K16">
-        <v>25.26022515953709</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>7.440503520857261</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>22.8150749435162</v>
       </c>
       <c r="N16">
-        <v>14.8361855696622</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>9.726013259287788</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.28840858513962</v>
+        <v>24.58743776484474</v>
       </c>
       <c r="C17">
-        <v>16.72384726960427</v>
+        <v>16.61719612414427</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.479814225152632</v>
+        <v>18.64267516372868</v>
       </c>
       <c r="F17">
-        <v>46.02591704011981</v>
+        <v>30.18241284593535</v>
       </c>
       <c r="G17">
-        <v>2.076572305273039</v>
+        <v>15.18044916126276</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.340460165945294</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.241489620724497</v>
+        <v>4.319507654422127</v>
       </c>
       <c r="K17">
-        <v>24.67062162107156</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>7.363106902399566</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>22.33777486873431</v>
       </c>
       <c r="N17">
-        <v>14.90273298449295</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>9.734590488885779</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.91609475592012</v>
+        <v>24.29573062253889</v>
       </c>
       <c r="C18">
-        <v>16.48690172422508</v>
+        <v>16.44487209348123</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.467633651571282</v>
+        <v>18.49229926708871</v>
       </c>
       <c r="F18">
-        <v>45.62894785523408</v>
+        <v>29.93381752770499</v>
       </c>
       <c r="G18">
-        <v>2.07979584843985</v>
+        <v>15.0643385697605</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.364594817715269</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.261092406666738</v>
+        <v>4.329531564344443</v>
       </c>
       <c r="K18">
-        <v>24.32820514048801</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>7.318759095362163</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>22.05906226249377</v>
       </c>
       <c r="N18">
-        <v>14.94170756043266</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>9.742135702853954</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.78962218720582</v>
+        <v>24.19621085131797</v>
       </c>
       <c r="C19">
-        <v>16.40628999118071</v>
+        <v>16.3861501942773</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.46355663028918</v>
+        <v>18.44135286576862</v>
       </c>
       <c r="F19">
-        <v>45.49478561189805</v>
+        <v>29.84984584695595</v>
       </c>
       <c r="G19">
-        <v>2.080887792598801</v>
+        <v>15.02580223270892</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.372922083881259</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.267762148195471</v>
+        <v>4.332941483211958</v>
       </c>
       <c r="K19">
-        <v>24.21169375545599</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>7.303772958306719</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>21.96397420805412</v>
       </c>
       <c r="N19">
-        <v>14.95502051213212</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>9.745128670755323</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.35712016095095</v>
+        <v>24.64106895387591</v>
       </c>
       <c r="C20">
-        <v>16.76751921732918</v>
+        <v>16.64891053702555</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.482091453624818</v>
+        <v>18.67049057451384</v>
       </c>
       <c r="F20">
-        <v>46.0995042054307</v>
+        <v>30.22851527712566</v>
       </c>
       <c r="G20">
-        <v>2.075975897304144</v>
+        <v>15.20230748466691</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.336068285467607</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.237877160372961</v>
+        <v>4.317660040314593</v>
       </c>
       <c r="K20">
-        <v>24.73372432155079</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>7.371328512363161</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>22.38901653497874</v>
       </c>
       <c r="N20">
-        <v>14.89557588158418</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>9.733404671966889</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.30460780316008</v>
+        <v>26.08356060225582</v>
       </c>
       <c r="C21">
-        <v>17.95561900278401</v>
+        <v>17.50542278388768</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.547962695342103</v>
+        <v>19.43774294540264</v>
       </c>
       <c r="F21">
-        <v>48.14896057522451</v>
+        <v>31.51389269072122</v>
       </c>
       <c r="G21">
-        <v>2.059480256665554</v>
+        <v>15.84923609608675</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.223667577952114</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.139802259572963</v>
+        <v>4.267422499997171</v>
       </c>
       <c r="K21">
-        <v>26.44910586035481</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>7.600306534491338</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>23.76731741333736</v>
       </c>
       <c r="N21">
-        <v>14.70444074681351</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>9.725973234536401</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.60292817105098</v>
+        <v>26.98768207112949</v>
       </c>
       <c r="C22">
-        <v>18.71467237012413</v>
+        <v>18.0454207097976</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.594111370240428</v>
+        <v>19.93681179308481</v>
       </c>
       <c r="F22">
-        <v>49.50270584674094</v>
+        <v>32.36299257136801</v>
       </c>
       <c r="G22">
-        <v>2.048669631901765</v>
+        <v>16.31187607294303</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.159457689642645</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.077541937471439</v>
+        <v>4.235406019381354</v>
       </c>
       <c r="K22">
-        <v>27.54332168045211</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>7.751430937297495</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>24.6314439905751</v>
       </c>
       <c r="N22">
-        <v>14.58653524278471</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>9.746634084018591</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.91253031216227</v>
+        <v>26.50865252518071</v>
       </c>
       <c r="C23">
-        <v>18.31103481120737</v>
+        <v>17.75903182173749</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.569168218939588</v>
+        <v>19.67069038248907</v>
       </c>
       <c r="F23">
-        <v>48.77878498677509</v>
+        <v>31.90902722754592</v>
       </c>
       <c r="G23">
-        <v>2.054444640683596</v>
+        <v>16.0613410165389</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.192831817554389</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.110596071584035</v>
+        <v>4.252419574688218</v>
       </c>
       <c r="K23">
-        <v>26.96164842105158</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>7.670637785438536</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>24.17357053208969</v>
       </c>
       <c r="N23">
-        <v>14.64877905095949</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>9.733165279804986</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.32606360627884</v>
+        <v>24.61683632959467</v>
       </c>
       <c r="C24">
-        <v>16.74778232778823</v>
+        <v>16.63457952960096</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.48106104859635</v>
+        <v>18.65791606171219</v>
       </c>
       <c r="F24">
-        <v>46.06623151365358</v>
+        <v>30.20766920200005</v>
       </c>
       <c r="G24">
-        <v>2.076245522498734</v>
+        <v>15.19241142699295</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.338050935560425</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.239509728785871</v>
+        <v>4.318495043314583</v>
       </c>
       <c r="K24">
-        <v>24.70520634812949</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>7.367611059285966</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>22.36586359746165</v>
       </c>
       <c r="N24">
-        <v>14.89880938719518</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>9.73393266301837</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.56552851394485</v>
+        <v>22.40881602807269</v>
       </c>
       <c r="C25">
-        <v>14.97663840637832</v>
+        <v>15.33797616369086</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.396779470700539</v>
+        <v>17.55827859702636</v>
       </c>
       <c r="F25">
-        <v>43.19579216709514</v>
+        <v>28.41637147337329</v>
       </c>
       <c r="G25">
-        <v>2.099852144513806</v>
+        <v>14.42750692539694</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.529796358062345</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.38588596922193</v>
+        <v>4.393325040221469</v>
       </c>
       <c r="K25">
-        <v>22.2461515184787</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.047282216847947</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>20.38801920874776</v>
       </c>
       <c r="N25">
-        <v>15.19491456098217</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>9.833207825319022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.6375770297039</v>
+        <v>12.20133293946381</v>
       </c>
       <c r="C2">
-        <v>14.31330855462245</v>
+        <v>9.666290596202549</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.74652930266611</v>
+        <v>23.04931394281904</v>
       </c>
       <c r="F2">
-        <v>27.14179065459062</v>
+        <v>36.29890899816973</v>
       </c>
       <c r="G2">
-        <v>14.01022906544626</v>
+        <v>19.19231553601168</v>
       </c>
       <c r="H2">
-        <v>6.69668494650773</v>
+        <v>11.96103799314165</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.45155060859928</v>
+        <v>7.353762464545818</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.87710024418434</v>
+        <v>19.25285945647081</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.978469956186876</v>
+        <v>16.9125619321515</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.34603654244449</v>
+        <v>11.51876793840451</v>
       </c>
       <c r="C3">
-        <v>13.57687142068194</v>
+        <v>9.304127779162064</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.19774920776725</v>
+        <v>23.01525262893884</v>
       </c>
       <c r="F3">
-        <v>26.30959102113002</v>
+        <v>36.3105425107217</v>
       </c>
       <c r="G3">
-        <v>13.8145311489379</v>
+        <v>19.33913346232814</v>
       </c>
       <c r="H3">
-        <v>6.82389358053087</v>
+        <v>12.02684006893154</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.49299801095199</v>
+        <v>7.369982786320945</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.78909826894803</v>
+        <v>18.96946233524631</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.11572566012132</v>
+        <v>17.02959569345609</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.50807333246546</v>
+        <v>11.07768141459265</v>
       </c>
       <c r="C4">
-        <v>13.10476255640001</v>
+        <v>9.074005827163695</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.86250501977592</v>
+        <v>22.99889935178487</v>
       </c>
       <c r="F4">
-        <v>25.81560903500706</v>
+        <v>36.32878974363857</v>
       </c>
       <c r="G4">
-        <v>13.73513102171769</v>
+        <v>19.44047000871002</v>
       </c>
       <c r="H4">
-        <v>6.908401215634524</v>
+        <v>12.06979353088736</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.519439047671383</v>
+        <v>7.380520774516295</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.09042133291005</v>
+        <v>18.79526488931599</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.21716575941423</v>
+        <v>17.10677617064804</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.15531630733356</v>
+        <v>10.89252774102524</v>
       </c>
       <c r="C5">
-        <v>12.90751225813059</v>
+        <v>8.978394932657146</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.72649233828117</v>
+        <v>22.99338649497118</v>
       </c>
       <c r="F5">
-        <v>25.61879474155568</v>
+        <v>36.33901298429196</v>
       </c>
       <c r="G5">
-        <v>13.71260426569256</v>
+        <v>19.48454828870362</v>
       </c>
       <c r="H5">
-        <v>6.944373198454337</v>
+        <v>12.08793877666873</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.530465150495291</v>
+        <v>7.384960979582359</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.79819047283819</v>
+        <v>18.72430565288426</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.26253765472462</v>
+        <v>17.13956161642744</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.09606107143566</v>
+        <v>10.86146061340459</v>
       </c>
       <c r="C6">
-        <v>12.87447035212322</v>
+        <v>8.962411651826404</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.70394913429165</v>
+        <v>22.99254073473151</v>
       </c>
       <c r="F6">
-        <v>25.58639102196787</v>
+        <v>36.34087871258713</v>
       </c>
       <c r="G6">
-        <v>13.70944354300064</v>
+        <v>19.49203461542497</v>
       </c>
       <c r="H6">
-        <v>6.950436933475585</v>
+        <v>12.09099051708292</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.532311245609053</v>
+        <v>7.385707094932393</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.7492184218807</v>
+        <v>18.71252681308554</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.27030730601371</v>
+        <v>17.14508604746823</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.50336155520182</v>
+        <v>11.07520608103089</v>
       </c>
       <c r="C7">
-        <v>13.10212183470546</v>
+        <v>9.07272365051266</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.86066803212834</v>
+        <v>22.9988203369243</v>
       </c>
       <c r="F7">
-        <v>25.81293628112923</v>
+        <v>36.32891633996458</v>
       </c>
       <c r="G7">
-        <v>13.73478803371459</v>
+        <v>19.44105323755358</v>
       </c>
       <c r="H7">
-        <v>6.908880227587851</v>
+        <v>12.0700356472063</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.519586730350609</v>
+        <v>7.380580065466583</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.08651034418517</v>
+        <v>18.79430769614994</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.2177616886289</v>
+        <v>17.10721293186901</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.20159143263583</v>
+        <v>11.97061365969438</v>
       </c>
       <c r="C8">
-        <v>14.0636029941692</v>
+        <v>9.543090903133573</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.55705503895397</v>
+        <v>23.0366259916059</v>
       </c>
       <c r="F8">
-        <v>26.85145172777276</v>
+        <v>36.30061319625707</v>
       </c>
       <c r="G8">
-        <v>13.93406720797993</v>
+        <v>19.24059747273348</v>
       </c>
       <c r="H8">
-        <v>6.73917045936925</v>
+        <v>11.98319711910449</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.465636759606341</v>
+        <v>7.359235365052057</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.50841615726874</v>
+        <v>19.15522876177392</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.02205951115942</v>
+        <v>16.95180813305623</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.1751086053111</v>
+        <v>13.54787616076933</v>
       </c>
       <c r="C9">
-        <v>15.78577938471975</v>
+        <v>10.39955985893399</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.92933041628601</v>
+        <v>23.14671774528086</v>
       </c>
       <c r="F9">
-        <v>29.01337257944736</v>
+        <v>36.33334922288818</v>
       </c>
       <c r="G9">
-        <v>14.66219046179742</v>
+        <v>18.93764456103746</v>
       </c>
       <c r="H9">
-        <v>6.460934057260988</v>
+        <v>11.83314760302594</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.36763713899056</v>
+        <v>7.321952332463384</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.04753591381863</v>
+        <v>19.85820908590002</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.78771763836302</v>
+        <v>16.68947706002279</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.14340572572485</v>
+        <v>14.59358416931043</v>
       </c>
       <c r="C10">
-        <v>16.94643326926216</v>
+        <v>10.98355835552616</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.93353097480813</v>
+        <v>23.24916201341</v>
       </c>
       <c r="F10">
-        <v>30.66626923192294</v>
+        <v>36.41124394612019</v>
       </c>
       <c r="G10">
-        <v>15.41471992734765</v>
+        <v>18.77181815569832</v>
       </c>
       <c r="H10">
-        <v>6.295642114137941</v>
+        <v>11.73524797905469</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.300283823695988</v>
+        <v>7.297324595127806</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.86897339145271</v>
+        <v>20.36748302709461</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.72539627775776</v>
+        <v>16.52287321452948</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.99234628859055</v>
+        <v>15.04416157535256</v>
       </c>
       <c r="C11">
-        <v>17.45107222292178</v>
+        <v>11.23855511573931</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.38815656694091</v>
+        <v>23.30035399149222</v>
       </c>
       <c r="F11">
-        <v>31.43006177752961</v>
+        <v>36.4583382507132</v>
       </c>
       <c r="G11">
-        <v>15.80498524248576</v>
+        <v>18.70906997730876</v>
       </c>
       <c r="H11">
-        <v>6.23042766475464</v>
+        <v>11.69339214604798</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.270630067697325</v>
+        <v>7.286715875278932</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.68015202009948</v>
+        <v>20.59672790069299</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.725002214006761</v>
+        <v>16.45281556876588</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.30718945030204</v>
+        <v>15.2111372159645</v>
       </c>
       <c r="C12">
-        <v>17.63877528406389</v>
+        <v>11.3335231562166</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.55991044641004</v>
+        <v>23.32038965623305</v>
       </c>
       <c r="F12">
-        <v>31.72085097805074</v>
+        <v>36.47784173285903</v>
       </c>
       <c r="G12">
-        <v>15.95961427000335</v>
+        <v>18.68716184685361</v>
       </c>
       <c r="H12">
-        <v>6.207306709080502</v>
+        <v>11.67792797725504</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.259541053516219</v>
+        <v>7.282783740026254</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.98102898855702</v>
+        <v>20.68311830246522</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.729205959362952</v>
+        <v>16.42711602345656</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.23967647788222</v>
+        <v>15.17533875674668</v>
       </c>
       <c r="C13">
-        <v>17.59850137745145</v>
+        <v>11.31314183343794</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.52293927924431</v>
+        <v>23.31604585333375</v>
       </c>
       <c r="F13">
-        <v>31.65815711894438</v>
+        <v>36.47356717126299</v>
       </c>
       <c r="G13">
-        <v>15.92600910836304</v>
+        <v>18.69179728613366</v>
       </c>
       <c r="H13">
-        <v>6.212213841065991</v>
+        <v>11.68124129957446</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.261923058162929</v>
+        <v>7.283626813719364</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.91650852904015</v>
+        <v>20.66453234468177</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.72810182607693</v>
+        <v>16.4326138857376</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.01838124665404</v>
+        <v>15.05797205152887</v>
       </c>
       <c r="C14">
-        <v>17.46658281456585</v>
+        <v>11.24640044653965</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.40229536886511</v>
+        <v>23.30198936112272</v>
       </c>
       <c r="F14">
-        <v>31.45395471846791</v>
+        <v>36.45990939338168</v>
       </c>
       <c r="G14">
-        <v>15.81756997688624</v>
+        <v>18.70723027997059</v>
       </c>
       <c r="H14">
-        <v>6.228493092242545</v>
+        <v>11.69211216623639</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.269714966030303</v>
+        <v>7.286390671414159</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.7050310979907</v>
+        <v>20.60384409686417</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.725258950525891</v>
+        <v>16.45068458942214</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.88196935039984</v>
+        <v>14.98560553652229</v>
       </c>
       <c r="C15">
-        <v>17.3853362434226</v>
+        <v>11.20531024165319</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.32834275138457</v>
+        <v>23.29346375274149</v>
       </c>
       <c r="F15">
-        <v>31.32907373849583</v>
+        <v>36.45176084093762</v>
       </c>
       <c r="G15">
-        <v>15.75203676762202</v>
+        <v>18.71692561487085</v>
       </c>
       <c r="H15">
-        <v>6.238673992065129</v>
+        <v>11.69882113341272</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.27450595165041</v>
+        <v>7.28809469393611</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.57467730252965</v>
+        <v>20.5666140890073</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.724094191689961</v>
+        <v>16.46186164564052</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.08699463899442</v>
+        <v>14.56362910019799</v>
       </c>
       <c r="C16">
-        <v>16.91298075153112</v>
+        <v>10.96667376467786</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.90376805862691</v>
+        <v>23.24590804915148</v>
       </c>
       <c r="F16">
-        <v>30.61657907393557</v>
+        <v>36.40840031788627</v>
       </c>
       <c r="G16">
-        <v>15.39017688725709</v>
+        <v>18.77617668986612</v>
       </c>
       <c r="H16">
-        <v>6.300116444980095</v>
+        <v>11.73803730692398</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.302241468858804</v>
+        <v>7.298029834818817</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.8150749435162</v>
+        <v>20.35244639998486</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.726013259287788</v>
+        <v>16.52756745166797</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.58743776484474</v>
+        <v>14.29829764853198</v>
       </c>
       <c r="C17">
-        <v>16.61719612414427</v>
+        <v>10.81750066461241</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.64267516372868</v>
+        <v>23.21790309467383</v>
       </c>
       <c r="F17">
-        <v>30.18241284593535</v>
+        <v>36.38478225477412</v>
       </c>
       <c r="G17">
-        <v>15.18044916126276</v>
+        <v>18.81579571236789</v>
       </c>
       <c r="H17">
-        <v>6.340460165945294</v>
+        <v>11.76278168035321</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.319507654422127</v>
+        <v>7.30427675988435</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.33777486873431</v>
+        <v>20.22038880270481</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.734590488885779</v>
+        <v>16.56934771109347</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.29573062253889</v>
+        <v>14.14332304696403</v>
       </c>
       <c r="C18">
-        <v>16.44487209348123</v>
+        <v>10.73069920945075</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.49229926708871</v>
+        <v>23.20222800477938</v>
       </c>
       <c r="F18">
-        <v>29.93381752770499</v>
+        <v>36.37229577229399</v>
       </c>
       <c r="G18">
-        <v>15.0643385697605</v>
+        <v>18.83977604562689</v>
       </c>
       <c r="H18">
-        <v>6.364594817715269</v>
+        <v>11.77726613782546</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.329531564344443</v>
+        <v>7.307925808981734</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.05906226249377</v>
+        <v>20.1442084469175</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.742135702853954</v>
+        <v>16.59391772330025</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.19621085131797</v>
+        <v>14.09044671911179</v>
       </c>
       <c r="C19">
-        <v>16.3861501942773</v>
+        <v>10.70113976081696</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.44135286576862</v>
+        <v>23.19699527050198</v>
       </c>
       <c r="F19">
-        <v>29.84984584695595</v>
+        <v>36.36825681594525</v>
       </c>
       <c r="G19">
-        <v>15.02580223270892</v>
+        <v>18.84809929035198</v>
       </c>
       <c r="H19">
-        <v>6.372922083881259</v>
+        <v>11.7822136196368</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.332941483211958</v>
+        <v>7.309170939889649</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.96397420805412</v>
+        <v>20.11837876086607</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.745128670755323</v>
+        <v>16.60232913114877</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.64106895387591</v>
+        <v>14.32678748280897</v>
       </c>
       <c r="C20">
-        <v>16.64891053702555</v>
+        <v>10.83348445874388</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.67049057451384</v>
+        <v>23.2208395623408</v>
       </c>
       <c r="F20">
-        <v>30.22851527712566</v>
+        <v>36.38718284049671</v>
       </c>
       <c r="G20">
-        <v>15.20230748466691</v>
+        <v>18.81145456528044</v>
       </c>
       <c r="H20">
-        <v>6.336068285467607</v>
+        <v>11.76012149993609</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.317660040314593</v>
+        <v>7.303605972488522</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.38901653497874</v>
+        <v>20.23447029670867</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.733404671966889</v>
+        <v>16.56484429476257</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.08356060225582</v>
+        <v>15.09254475140263</v>
       </c>
       <c r="C21">
-        <v>17.50542278388768</v>
+        <v>11.26604769742267</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.43774294540264</v>
+        <v>23.30610052321989</v>
       </c>
       <c r="F21">
-        <v>31.51389269072122</v>
+        <v>36.46387575825413</v>
       </c>
       <c r="G21">
-        <v>15.84923609608675</v>
+        <v>18.70264671578427</v>
       </c>
       <c r="H21">
-        <v>6.223667577952114</v>
+        <v>11.68890865677411</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.267422499997171</v>
+        <v>7.285576550977561</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.76731741333736</v>
+        <v>20.62168164565027</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.725973234536401</v>
+        <v>16.44535422082325</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.98768207112949</v>
+        <v>15.57173607482108</v>
       </c>
       <c r="C22">
-        <v>18.0454207097976</v>
+        <v>11.53944144614879</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.93681179308481</v>
+        <v>23.36560934242288</v>
       </c>
       <c r="F22">
-        <v>32.36299257136801</v>
+        <v>36.52372771847298</v>
       </c>
       <c r="G22">
-        <v>16.31187607294303</v>
+        <v>18.64234901651709</v>
       </c>
       <c r="H22">
-        <v>6.159457689642645</v>
+        <v>11.64461550336004</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.235406019381354</v>
+        <v>7.27428948505064</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.6314439905751</v>
+        <v>20.87226976692486</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.746634084018591</v>
+        <v>16.37209973960148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.50865252518071</v>
+        <v>15.31793892838771</v>
       </c>
       <c r="C23">
-        <v>17.75903182173749</v>
+        <v>11.39439568442562</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.67069038248907</v>
+        <v>23.33350534094425</v>
       </c>
       <c r="F23">
-        <v>31.90902722754592</v>
+        <v>36.49089622713831</v>
       </c>
       <c r="G23">
-        <v>16.0613410165389</v>
+        <v>18.67353232583578</v>
       </c>
       <c r="H23">
-        <v>6.192831817554389</v>
+        <v>11.6680496860161</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.252419574688218</v>
+        <v>7.280268313416357</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.17357053208969</v>
+        <v>20.73877544486436</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.733165279804986</v>
+        <v>16.41075236425959</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.61683632959467</v>
+        <v>14.31391480112283</v>
       </c>
       <c r="C24">
-        <v>16.63457952960096</v>
+        <v>10.826261419736</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.65791606171219</v>
+        <v>23.21951065968988</v>
       </c>
       <c r="F24">
-        <v>30.20766920200005</v>
+        <v>36.38609413411483</v>
       </c>
       <c r="G24">
-        <v>15.19241142699295</v>
+        <v>18.81341345333528</v>
       </c>
       <c r="H24">
-        <v>6.338050935560425</v>
+        <v>11.76132336203499</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.318495043314583</v>
+        <v>7.303909055990092</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.36586359746165</v>
+        <v>20.2281048535887</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.73393266301837</v>
+        <v>16.56687857651416</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.40881602807269</v>
+        <v>13.14080705524141</v>
       </c>
       <c r="C25">
-        <v>15.33797616369086</v>
+        <v>10.17548561002382</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.55827859702636</v>
+        <v>23.11311943779865</v>
       </c>
       <c r="F25">
-        <v>28.41637147337329</v>
+        <v>36.31503297362912</v>
       </c>
       <c r="G25">
-        <v>14.42750692539694</v>
+        <v>19.00976212231538</v>
       </c>
       <c r="H25">
-        <v>6.529796358062345</v>
+        <v>11.87157297043859</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.393325040221469</v>
+        <v>7.331551237790973</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.38801920874776</v>
+        <v>19.66899598536668</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.833207825319022</v>
+        <v>16.75587584400248</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.20133293946381</v>
+        <v>20.63757702970387</v>
       </c>
       <c r="C2">
-        <v>9.666290596202549</v>
+        <v>14.31330855462237</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.04931394281904</v>
+        <v>16.74652930266604</v>
       </c>
       <c r="F2">
-        <v>36.29890899816973</v>
+        <v>27.1417906545906</v>
       </c>
       <c r="G2">
-        <v>19.19231553601168</v>
+        <v>14.01022906544645</v>
       </c>
       <c r="H2">
-        <v>11.96103799314165</v>
+        <v>6.696684946507728</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.353762464545818</v>
+        <v>4.451550608599281</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.25285945647081</v>
+        <v>18.87710024418433</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.9125619321515</v>
+        <v>9.978469956186947</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.51876793840451</v>
+        <v>19.34603654244449</v>
       </c>
       <c r="C3">
-        <v>9.304127779162064</v>
+        <v>13.5768714206818</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.01525262893884</v>
+        <v>16.19774920776717</v>
       </c>
       <c r="F3">
-        <v>36.3105425107217</v>
+        <v>26.30959102113005</v>
       </c>
       <c r="G3">
-        <v>19.33913346232814</v>
+        <v>13.81453114893806</v>
       </c>
       <c r="H3">
-        <v>12.02684006893154</v>
+        <v>6.823893580530934</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.369982786320945</v>
+        <v>4.49299801095192</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.96946233524631</v>
+        <v>17.78909826894799</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.02959569345609</v>
+        <v>10.1157256601214</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.07768141459265</v>
+        <v>18.50807333246537</v>
       </c>
       <c r="C4">
-        <v>9.074005827163695</v>
+        <v>13.10476255639996</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.99889935178487</v>
+        <v>15.86250501977586</v>
       </c>
       <c r="F4">
-        <v>36.32878974363857</v>
+        <v>25.81560903500707</v>
       </c>
       <c r="G4">
-        <v>19.44047000871002</v>
+        <v>13.73513102171774</v>
       </c>
       <c r="H4">
-        <v>12.06979353088736</v>
+        <v>6.90840121563452</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.380520774516295</v>
+        <v>4.519439047671352</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.79526488931599</v>
+        <v>17.09042133291005</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.10677617064804</v>
+        <v>10.21716575941428</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.89252774102524</v>
+        <v>18.15531630733353</v>
       </c>
       <c r="C5">
-        <v>8.978394932657146</v>
+        <v>12.90751225813055</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.99338649497118</v>
+        <v>15.72649233828126</v>
       </c>
       <c r="F5">
-        <v>36.33901298429196</v>
+        <v>25.61879474155575</v>
       </c>
       <c r="G5">
-        <v>19.48454828870362</v>
+        <v>13.71260426569259</v>
       </c>
       <c r="H5">
-        <v>12.08793877666873</v>
+        <v>6.94437319845434</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.384960979582359</v>
+        <v>4.530465150495357</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.72430565288426</v>
+        <v>16.79819047283821</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.13956161642744</v>
+        <v>10.26253765472463</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.86146061340459</v>
+        <v>18.09606107143562</v>
       </c>
       <c r="C6">
-        <v>8.962411651826404</v>
+        <v>12.8744703521232</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.99254073473151</v>
+        <v>15.70394913429164</v>
       </c>
       <c r="F6">
-        <v>36.34087871258713</v>
+        <v>25.58639102196799</v>
       </c>
       <c r="G6">
-        <v>19.49203461542497</v>
+        <v>13.70944354300091</v>
       </c>
       <c r="H6">
-        <v>12.09099051708292</v>
+        <v>6.950436933475647</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.385707094932393</v>
+        <v>4.532311245609121</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.71252681308554</v>
+        <v>16.74921842188069</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.14508604746823</v>
+        <v>10.27030730601388</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.07520608103089</v>
+        <v>18.50336155520178</v>
       </c>
       <c r="C7">
-        <v>9.07272365051266</v>
+        <v>13.10212183470538</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.9988203369243</v>
+        <v>15.86066803212833</v>
       </c>
       <c r="F7">
-        <v>36.32891633996458</v>
+        <v>25.81293628112933</v>
       </c>
       <c r="G7">
-        <v>19.44105323755358</v>
+        <v>13.73478803371464</v>
       </c>
       <c r="H7">
-        <v>12.0700356472063</v>
+        <v>6.908880227587975</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.380580065466583</v>
+        <v>4.519586730350509</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.79430769614994</v>
+        <v>17.08651034418515</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.10721293186901</v>
+        <v>10.217761688629</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.97061365969438</v>
+        <v>20.20159143263581</v>
       </c>
       <c r="C8">
-        <v>9.543090903133573</v>
+        <v>14.0636029941692</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.0366259916059</v>
+        <v>16.55705503895398</v>
       </c>
       <c r="F8">
-        <v>36.30061319625707</v>
+        <v>26.85145172777285</v>
       </c>
       <c r="G8">
-        <v>19.24059747273348</v>
+        <v>13.93406720798</v>
       </c>
       <c r="H8">
-        <v>11.98319711910449</v>
+        <v>6.739170459369307</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.359235365052057</v>
+        <v>4.46563675960634</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.15522876177392</v>
+        <v>18.50841615726873</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.95180813305623</v>
+        <v>10.02205951115952</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.54787616076933</v>
+        <v>23.17510860531111</v>
       </c>
       <c r="C9">
-        <v>10.39955985893399</v>
+        <v>15.78577938471968</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.14671774528086</v>
+        <v>17.92933041628609</v>
       </c>
       <c r="F9">
-        <v>36.33334922288818</v>
+        <v>29.01337257944739</v>
       </c>
       <c r="G9">
-        <v>18.93764456103746</v>
+        <v>14.66219046179743</v>
       </c>
       <c r="H9">
-        <v>11.83314760302594</v>
+        <v>6.460934057260884</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.321952332463384</v>
+        <v>4.367637138990559</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.85820908590002</v>
+        <v>21.04753591381865</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.68947706002279</v>
+        <v>9.787717638362995</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.59358416931043</v>
+        <v>25.14340572572481</v>
       </c>
       <c r="C10">
-        <v>10.98355835552616</v>
+        <v>16.94643326926218</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.24916201341</v>
+        <v>18.93353097480805</v>
       </c>
       <c r="F10">
-        <v>36.41124394612019</v>
+        <v>30.66626923192295</v>
       </c>
       <c r="G10">
-        <v>18.77181815569832</v>
+        <v>15.41471992734776</v>
       </c>
       <c r="H10">
-        <v>11.73524797905469</v>
+        <v>6.295642114137958</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.297324595127806</v>
+        <v>4.300283823696086</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.36748302709461</v>
+        <v>22.86897339145269</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.52287321452948</v>
+        <v>9.72539627775785</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.04416157535256</v>
+        <v>25.99234628859045</v>
       </c>
       <c r="C11">
-        <v>11.23855511573931</v>
+        <v>17.45107222292181</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.30035399149222</v>
+        <v>19.38815656694089</v>
       </c>
       <c r="F11">
-        <v>36.4583382507132</v>
+        <v>31.43006177752964</v>
       </c>
       <c r="G11">
-        <v>18.70906997730876</v>
+        <v>15.80498524248586</v>
       </c>
       <c r="H11">
-        <v>11.69339214604798</v>
+        <v>6.230427664754744</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.286715875278932</v>
+        <v>4.270630067697359</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.59672790069299</v>
+        <v>23.68015202009943</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.45281556876588</v>
+        <v>9.725002214006869</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.2111372159645</v>
+        <v>26.30718945030202</v>
       </c>
       <c r="C12">
-        <v>11.3335231562166</v>
+        <v>17.63877528406392</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.32038965623305</v>
+        <v>19.55991044641009</v>
       </c>
       <c r="F12">
-        <v>36.47784173285903</v>
+        <v>31.72085097805077</v>
       </c>
       <c r="G12">
-        <v>18.68716184685361</v>
+        <v>15.95961427000339</v>
       </c>
       <c r="H12">
-        <v>11.67792797725504</v>
+        <v>6.207306709080454</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.282783740026254</v>
+        <v>4.259541053516254</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.68311830246522</v>
+        <v>23.98102898855704</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.42711602345656</v>
+        <v>9.729205959362989</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.17533875674668</v>
+        <v>26.23967647788221</v>
       </c>
       <c r="C13">
-        <v>11.31314183343794</v>
+        <v>17.59850137745131</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.31604585333375</v>
+        <v>19.52293927924428</v>
       </c>
       <c r="F13">
-        <v>36.47356717126299</v>
+        <v>31.65815711894437</v>
       </c>
       <c r="G13">
-        <v>18.69179728613366</v>
+        <v>15.92600910836299</v>
       </c>
       <c r="H13">
-        <v>11.68124129957446</v>
+        <v>6.212213841065987</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.283626813719364</v>
+        <v>4.261923058162898</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.66453234468177</v>
+        <v>23.91650852904014</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.4326138857376</v>
+        <v>9.728101826076987</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.05797205152887</v>
+        <v>26.01838124665404</v>
       </c>
       <c r="C14">
-        <v>11.24640044653965</v>
+        <v>17.46658281456599</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.30198936112272</v>
+        <v>19.40229536886511</v>
       </c>
       <c r="F14">
-        <v>36.45990939338168</v>
+        <v>31.45395471846789</v>
       </c>
       <c r="G14">
-        <v>18.70723027997059</v>
+        <v>15.81756997688624</v>
       </c>
       <c r="H14">
-        <v>11.69211216623639</v>
+        <v>6.228493092242533</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.286390671414159</v>
+        <v>4.269714966030304</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.60384409686417</v>
+        <v>23.70503109799069</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.45068458942214</v>
+        <v>9.725258950525886</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.98560553652229</v>
+        <v>25.88196935039982</v>
       </c>
       <c r="C15">
-        <v>11.20531024165319</v>
+        <v>17.3853362434225</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.29346375274149</v>
+        <v>19.3283427513846</v>
       </c>
       <c r="F15">
-        <v>36.45176084093762</v>
+        <v>31.32907373849585</v>
       </c>
       <c r="G15">
-        <v>18.71692561487085</v>
+        <v>15.75203676762203</v>
       </c>
       <c r="H15">
-        <v>11.69882113341272</v>
+        <v>6.238673992065071</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.28809469393611</v>
+        <v>4.274505951650475</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.5666140890073</v>
+        <v>23.57467730252962</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.46186164564052</v>
+        <v>9.724094191690021</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.56362910019799</v>
+        <v>25.08699463899439</v>
       </c>
       <c r="C16">
-        <v>10.96667376467786</v>
+        <v>16.91298075153116</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.24590804915148</v>
+        <v>18.90376805862691</v>
       </c>
       <c r="F16">
-        <v>36.40840031788627</v>
+        <v>30.61657907393554</v>
       </c>
       <c r="G16">
-        <v>18.77617668986612</v>
+        <v>15.39017688725697</v>
       </c>
       <c r="H16">
-        <v>11.73803730692398</v>
+        <v>6.300116444980095</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.298029834818817</v>
+        <v>4.302241468858738</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.35244639998486</v>
+        <v>22.81507494351623</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.52756745166797</v>
+        <v>9.726013259287726</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.29829764853198</v>
+        <v>24.58743776484473</v>
       </c>
       <c r="C17">
-        <v>10.81750066461241</v>
+        <v>16.6171961241441</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.21790309467383</v>
+        <v>18.64267516372863</v>
       </c>
       <c r="F17">
-        <v>36.38478225477412</v>
+        <v>30.18241284593537</v>
       </c>
       <c r="G17">
-        <v>18.81579571236789</v>
+        <v>15.18044916126284</v>
       </c>
       <c r="H17">
-        <v>11.76278168035321</v>
+        <v>6.34046016594535</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.30427675988435</v>
+        <v>4.319507654422098</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.22038880270481</v>
+        <v>22.3377748687343</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.56934771109347</v>
+        <v>9.73459048888591</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.14332304696403</v>
+        <v>24.29573062253885</v>
       </c>
       <c r="C18">
-        <v>10.73069920945075</v>
+        <v>16.44487209348123</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.20222800477938</v>
+        <v>18.49229926708879</v>
       </c>
       <c r="F18">
-        <v>36.37229577229399</v>
+        <v>29.93381752770506</v>
       </c>
       <c r="G18">
-        <v>18.83977604562689</v>
+        <v>15.06433856976055</v>
       </c>
       <c r="H18">
-        <v>11.77726613782546</v>
+        <v>6.364594817715259</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.307925808981734</v>
+        <v>4.329531564344475</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.1442084469175</v>
+        <v>22.05906226249373</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.59391772330025</v>
+        <v>9.742135702853995</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.09044671911179</v>
+        <v>24.1962108513179</v>
       </c>
       <c r="C19">
-        <v>10.70113976081696</v>
+        <v>16.38615019427731</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.19699527050198</v>
+        <v>18.44135286576861</v>
       </c>
       <c r="F19">
-        <v>36.36825681594525</v>
+        <v>29.84984584695594</v>
       </c>
       <c r="G19">
-        <v>18.84809929035198</v>
+        <v>15.02580223270885</v>
       </c>
       <c r="H19">
-        <v>11.7822136196368</v>
+        <v>6.372922083881306</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.309170939889649</v>
+        <v>4.332941483211997</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.11837876086607</v>
+        <v>21.96397420805411</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.60232913114877</v>
+        <v>9.74512867075531</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.32678748280897</v>
+        <v>24.64106895387593</v>
       </c>
       <c r="C20">
-        <v>10.83348445874388</v>
+        <v>16.64891053702539</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.2208395623408</v>
+        <v>18.67049057451386</v>
       </c>
       <c r="F20">
-        <v>36.38718284049671</v>
+        <v>30.2285152771257</v>
       </c>
       <c r="G20">
-        <v>18.81145456528044</v>
+        <v>15.20230748466694</v>
       </c>
       <c r="H20">
-        <v>11.76012149993609</v>
+        <v>6.336068285467617</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.303605972488522</v>
+        <v>4.317660040314557</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.23447029670867</v>
+        <v>22.38901653497873</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.56484429476257</v>
+        <v>9.73340467196693</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.09254475140263</v>
+        <v>26.08356060225579</v>
       </c>
       <c r="C21">
-        <v>11.26604769742267</v>
+        <v>17.5054227838876</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.30610052321989</v>
+        <v>19.43774294540259</v>
       </c>
       <c r="F21">
-        <v>36.46387575825413</v>
+        <v>31.51389269072123</v>
       </c>
       <c r="G21">
-        <v>18.70264671578427</v>
+        <v>15.84923609608683</v>
       </c>
       <c r="H21">
-        <v>11.68890865677411</v>
+        <v>6.22366757795213</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.285576550977561</v>
+        <v>4.267422499997138</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.62168164565027</v>
+        <v>23.76731741333734</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.44535422082325</v>
+        <v>9.725973234536436</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.57173607482108</v>
+        <v>26.98768207112945</v>
       </c>
       <c r="C22">
-        <v>11.53944144614879</v>
+        <v>18.04542070979763</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.36560934242288</v>
+        <v>19.93681179308481</v>
       </c>
       <c r="F22">
-        <v>36.52372771847298</v>
+        <v>32.36299257136805</v>
       </c>
       <c r="G22">
-        <v>18.64234901651709</v>
+        <v>16.31187607294308</v>
       </c>
       <c r="H22">
-        <v>11.64461550336004</v>
+        <v>6.159457689642645</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.27428948505064</v>
+        <v>4.235406019381351</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.87226976692486</v>
+        <v>24.63144399057513</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.37209973960148</v>
+        <v>9.746634084018627</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.31793892838771</v>
+        <v>26.5086525251807</v>
       </c>
       <c r="C23">
-        <v>11.39439568442562</v>
+        <v>17.75903182173744</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.33350534094425</v>
+        <v>19.67069038248914</v>
       </c>
       <c r="F23">
-        <v>36.49089622713831</v>
+        <v>31.90902722754594</v>
       </c>
       <c r="G23">
-        <v>18.67353232583578</v>
+        <v>16.06134101653887</v>
       </c>
       <c r="H23">
-        <v>11.6680496860161</v>
+        <v>6.192831817554441</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.280268313416357</v>
+        <v>4.25241957468825</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.73877544486436</v>
+        <v>24.17357053208965</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.41075236425959</v>
+        <v>9.733165279804982</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.31391480112283</v>
+        <v>24.6168363295946</v>
       </c>
       <c r="C24">
-        <v>10.826261419736</v>
+        <v>16.63457952960111</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.21951065968988</v>
+        <v>18.65791606171224</v>
       </c>
       <c r="F24">
-        <v>36.38609413411483</v>
+        <v>30.20766920200006</v>
       </c>
       <c r="G24">
-        <v>18.81341345333528</v>
+        <v>15.19241142699291</v>
       </c>
       <c r="H24">
-        <v>11.76132336203499</v>
+        <v>6.338050935560409</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.303909055990092</v>
+        <v>4.318495043314585</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.2281048535887</v>
+        <v>22.36586359746164</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.56687857651416</v>
+        <v>9.733932663018372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.14080705524141</v>
+        <v>22.40881602807274</v>
       </c>
       <c r="C25">
-        <v>10.17548561002382</v>
+        <v>15.33797616369094</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.11311943779865</v>
+        <v>17.55827859702638</v>
       </c>
       <c r="F25">
-        <v>36.31503297362912</v>
+        <v>28.41637147337331</v>
       </c>
       <c r="G25">
-        <v>19.00976212231538</v>
+        <v>14.42750692539695</v>
       </c>
       <c r="H25">
-        <v>11.87157297043859</v>
+        <v>6.529796358062351</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.331551237790973</v>
+        <v>4.393325040221469</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.66899598536668</v>
+        <v>20.38801920874778</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.75587584400248</v>
+        <v>9.833207825319016</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.63757702970387</v>
+        <v>14.59265634652569</v>
       </c>
       <c r="C2">
-        <v>14.31330855462237</v>
+        <v>6.352674375848786</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.74652930266604</v>
+        <v>9.166201605043598</v>
       </c>
       <c r="F2">
-        <v>27.1417906545906</v>
+        <v>29.98009568976579</v>
       </c>
       <c r="G2">
-        <v>14.01022906544645</v>
+        <v>31.78131431785928</v>
       </c>
       <c r="H2">
-        <v>6.696684946507728</v>
+        <v>2.923784796746221</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.651398936153423</v>
       </c>
       <c r="J2">
-        <v>4.451550608599281</v>
+        <v>11.32042871009365</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.53957153505042</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.808219732066864</v>
       </c>
       <c r="M2">
-        <v>18.87710024418433</v>
+        <v>11.21892754950383</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.277898859176535</v>
       </c>
       <c r="O2">
-        <v>9.978469956186947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>13.78159891221343</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.34603654244449</v>
+        <v>13.7149281501211</v>
       </c>
       <c r="C3">
-        <v>13.5768714206818</v>
+        <v>6.079093087173699</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.19774920776717</v>
+        <v>8.842499901252999</v>
       </c>
       <c r="F3">
-        <v>26.30959102113005</v>
+        <v>29.18348440125027</v>
       </c>
       <c r="G3">
-        <v>13.81453114893806</v>
+        <v>31.24068502981443</v>
       </c>
       <c r="H3">
-        <v>6.823893580530934</v>
+        <v>3.147299715212981</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.820414387015752</v>
       </c>
       <c r="J3">
-        <v>4.49299801095192</v>
+        <v>11.30073209526792</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.46895600039518</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.749022167077407</v>
       </c>
       <c r="M3">
-        <v>17.78909826894799</v>
+        <v>10.50554782559781</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.96114119637007</v>
       </c>
       <c r="O3">
-        <v>10.1157256601214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>13.92787361477367</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.50807333246537</v>
+        <v>13.14583057984336</v>
       </c>
       <c r="C4">
-        <v>13.10476255639996</v>
+        <v>5.906200770376568</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.86250501977586</v>
+        <v>8.637325133328529</v>
       </c>
       <c r="F4">
-        <v>25.81560903500707</v>
+        <v>28.6899718432734</v>
       </c>
       <c r="G4">
-        <v>13.73513102171774</v>
+        <v>30.91380157281653</v>
       </c>
       <c r="H4">
-        <v>6.90840121563452</v>
+        <v>3.289676968809837</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.928616437149135</v>
       </c>
       <c r="J4">
-        <v>4.519439047671352</v>
+        <v>11.29128777085422</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.42852431816934</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.711292146664572</v>
       </c>
       <c r="M4">
-        <v>17.09042133291005</v>
+        <v>10.04162542599913</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.761364765321548</v>
       </c>
       <c r="O4">
-        <v>10.21716575941428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>14.01890988288559</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.15531630733353</v>
+        <v>12.90108985005164</v>
       </c>
       <c r="C5">
-        <v>12.90751225813055</v>
+        <v>5.837659677583824</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.72649233828126</v>
+        <v>8.552173023262673</v>
       </c>
       <c r="F5">
-        <v>25.61879474155575</v>
+        <v>28.47971367709021</v>
       </c>
       <c r="G5">
-        <v>13.71260426569259</v>
+        <v>30.76643217904871</v>
       </c>
       <c r="H5">
-        <v>6.94437319845434</v>
+        <v>3.349352630314439</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.976366440222138</v>
       </c>
       <c r="J5">
-        <v>4.530465150495357</v>
+        <v>11.28535736893038</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.40637787968868</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.695707336832507</v>
       </c>
       <c r="M5">
-        <v>16.79819047283821</v>
+        <v>9.844715605646078</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.68064369537103</v>
       </c>
       <c r="O5">
-        <v>10.26253765472463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>14.05526647961257</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.09606107143562</v>
+        <v>12.8534603175498</v>
       </c>
       <c r="C6">
-        <v>12.8744703521232</v>
+        <v>5.830056151411132</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.70394913429164</v>
+        <v>8.537941569867762</v>
       </c>
       <c r="F6">
-        <v>25.58639102196799</v>
+        <v>28.43461282386713</v>
       </c>
       <c r="G6">
-        <v>13.70944354300091</v>
+        <v>30.7230690504369</v>
       </c>
       <c r="H6">
-        <v>6.950436933475647</v>
+        <v>3.359763768550879</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.987599718258835</v>
       </c>
       <c r="J6">
-        <v>4.532311245609121</v>
+        <v>11.28106936001857</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.39492832200684</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.693271927760231</v>
       </c>
       <c r="M6">
-        <v>16.74921842188069</v>
+        <v>9.809984844701093</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.669529803817944</v>
       </c>
       <c r="O6">
-        <v>10.27030730601388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>14.06003035882298</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.50336155520178</v>
+        <v>13.12507593176416</v>
       </c>
       <c r="C7">
-        <v>13.10212183470538</v>
+        <v>5.915661036476802</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.86066803212833</v>
+        <v>8.636182276597964</v>
       </c>
       <c r="F7">
-        <v>25.81293628112933</v>
+        <v>28.65970392607154</v>
       </c>
       <c r="G7">
-        <v>13.73478803371464</v>
+        <v>30.86029268342692</v>
       </c>
       <c r="H7">
-        <v>6.908880227587975</v>
+        <v>3.291611760531341</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.937827474874756</v>
       </c>
       <c r="J7">
-        <v>4.519586730350509</v>
+        <v>11.28210158001374</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.40693298896209</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.71157809956601</v>
       </c>
       <c r="M7">
-        <v>17.08651034418515</v>
+        <v>10.03461416017194</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.766646302432627</v>
       </c>
       <c r="O7">
-        <v>10.217761688629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>14.01592226932682</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.20159143263581</v>
+        <v>14.27482555945344</v>
       </c>
       <c r="C8">
-        <v>14.0636029941692</v>
+        <v>6.272510984172632</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.55705503895398</v>
+        <v>9.055974205428214</v>
       </c>
       <c r="F8">
-        <v>26.85145172777285</v>
+        <v>29.67143015002699</v>
       </c>
       <c r="G8">
-        <v>13.93406720798</v>
+        <v>31.52730089949148</v>
       </c>
       <c r="H8">
-        <v>6.739170459369307</v>
+        <v>3.001219713199013</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.719682249507735</v>
       </c>
       <c r="J8">
-        <v>4.46563675960634</v>
+        <v>11.30115083059446</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.48672752138165</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.788838985457491</v>
       </c>
       <c r="M8">
-        <v>18.50841615726873</v>
+        <v>10.97294259893405</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.177871169736173</v>
       </c>
       <c r="O8">
-        <v>10.02205951115952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>13.82742847982678</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.17510860531111</v>
+        <v>16.31492413361977</v>
       </c>
       <c r="C9">
-        <v>15.78577938471968</v>
+        <v>6.915682875528388</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.92933041628609</v>
+        <v>9.82539033495059</v>
       </c>
       <c r="F9">
-        <v>29.01337257944739</v>
+        <v>31.65722094659135</v>
       </c>
       <c r="G9">
-        <v>14.66219046179743</v>
+        <v>32.96131810944209</v>
       </c>
       <c r="H9">
-        <v>6.460934057260884</v>
+        <v>2.469829403676647</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.312405652628363</v>
       </c>
       <c r="J9">
-        <v>4.367637138990559</v>
+        <v>11.37629146962547</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.70461831365004</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.928401460248482</v>
       </c>
       <c r="M9">
-        <v>21.04753591381865</v>
+        <v>12.61495241494477</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.928258322432267</v>
       </c>
       <c r="O9">
-        <v>9.787717638362995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>13.4726679978951</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.14340572572481</v>
+        <v>17.60661118553116</v>
       </c>
       <c r="C10">
-        <v>16.94643326926218</v>
+        <v>7.388382643306284</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.93353097480805</v>
+        <v>10.23285850467091</v>
       </c>
       <c r="F10">
-        <v>30.66626923192295</v>
+        <v>32.86116594304381</v>
       </c>
       <c r="G10">
-        <v>15.41471992734776</v>
+        <v>33.8102773234725</v>
       </c>
       <c r="H10">
-        <v>6.295642114137958</v>
+        <v>2.133446470235283</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.044970647521073</v>
       </c>
       <c r="J10">
-        <v>4.300283823696086</v>
+        <v>11.40464745530882</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.7907579482516</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.033331753905258</v>
       </c>
       <c r="M10">
-        <v>22.86897339145269</v>
+        <v>13.67522626014042</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.35105103866387</v>
       </c>
       <c r="O10">
-        <v>9.72539627775785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>13.20480527609002</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.99234628859045</v>
+        <v>17.71779217870436</v>
       </c>
       <c r="C11">
-        <v>17.45107222292181</v>
+        <v>7.785780562394107</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.38815656694089</v>
+        <v>9.393149952602366</v>
       </c>
       <c r="F11">
-        <v>31.43006177752964</v>
+        <v>31.60951751318242</v>
       </c>
       <c r="G11">
-        <v>15.80498524248586</v>
+        <v>32.40884489225912</v>
       </c>
       <c r="H11">
-        <v>6.230427664754744</v>
+        <v>3.012688879229382</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.994002788784459</v>
       </c>
       <c r="J11">
-        <v>4.270630067697359</v>
+        <v>11.08932519400793</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.12043685915476</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.179907790981066</v>
       </c>
       <c r="M11">
-        <v>23.68015202009943</v>
+        <v>13.95252199122078</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.69416567820749</v>
       </c>
       <c r="O11">
-        <v>9.725002214006869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>13.00414625678739</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.30718945030202</v>
+        <v>17.56416528472608</v>
       </c>
       <c r="C12">
-        <v>17.63877528406392</v>
+        <v>8.017561594910006</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.55991044641009</v>
+        <v>8.642381439835937</v>
       </c>
       <c r="F12">
-        <v>31.72085097805077</v>
+        <v>30.31839746125432</v>
       </c>
       <c r="G12">
-        <v>15.95961427000339</v>
+        <v>31.09882639091803</v>
       </c>
       <c r="H12">
-        <v>6.207306709080454</v>
+        <v>4.325437091241972</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.987073259642623</v>
       </c>
       <c r="J12">
-        <v>4.259541053516254</v>
+        <v>10.82798882530677</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.56886043481726</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.310710848974176</v>
       </c>
       <c r="M12">
-        <v>23.98102898855704</v>
+        <v>13.97560453604789</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.047831605160273</v>
       </c>
       <c r="O12">
-        <v>9.729205959362989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.912469206428</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.23967647788221</v>
+        <v>17.17187983450998</v>
       </c>
       <c r="C13">
-        <v>17.59850137745131</v>
+        <v>8.153363857369611</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.52293927924428</v>
+        <v>7.916368027789672</v>
       </c>
       <c r="F13">
-        <v>31.65815711894437</v>
+        <v>28.86061779273034</v>
       </c>
       <c r="G13">
-        <v>15.92600910836299</v>
+        <v>29.68961181769344</v>
       </c>
       <c r="H13">
-        <v>6.212213841065987</v>
+        <v>5.718624295749879</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.028146012726065</v>
       </c>
       <c r="J13">
-        <v>4.261923058162898</v>
+        <v>10.57831105849372</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.04363208359019</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.435373287116775</v>
       </c>
       <c r="M13">
-        <v>23.91650852904014</v>
+        <v>13.80029181788282</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.370251899212449</v>
       </c>
       <c r="O13">
-        <v>9.728101826076987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.89264925230673</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.01838124665404</v>
+        <v>16.77946575315711</v>
       </c>
       <c r="C14">
-        <v>17.46658281456599</v>
+        <v>8.210202050394836</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.40229536886511</v>
+        <v>7.435301964830134</v>
       </c>
       <c r="F14">
-        <v>31.45395471846789</v>
+        <v>27.75149056406214</v>
       </c>
       <c r="G14">
-        <v>15.81756997688624</v>
+        <v>28.64284491099956</v>
       </c>
       <c r="H14">
-        <v>6.228493092242533</v>
+        <v>6.716104117657433</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.081370490375741</v>
       </c>
       <c r="J14">
-        <v>4.269714966030304</v>
+        <v>10.40771012748209</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.6864038558551</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.522716057750816</v>
       </c>
       <c r="M14">
-        <v>23.70503109799069</v>
+        <v>13.58450449192315</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.884193615044025</v>
       </c>
       <c r="O14">
-        <v>9.725258950525886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.91226384602694</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.88196935039982</v>
+        <v>16.62628353768652</v>
       </c>
       <c r="C15">
-        <v>17.3853362434225</v>
+        <v>8.207091020840794</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.3283427513846</v>
+        <v>7.317853042296352</v>
       </c>
       <c r="F15">
-        <v>31.32907373849585</v>
+        <v>27.43854407300271</v>
       </c>
       <c r="G15">
-        <v>15.75203676762203</v>
+        <v>28.3523528343232</v>
       </c>
       <c r="H15">
-        <v>6.238673992065071</v>
+        <v>6.950375540868971</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.109256228252629</v>
       </c>
       <c r="J15">
-        <v>4.274505951650475</v>
+        <v>10.36631296759596</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.59896545076553</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.539606543659479</v>
       </c>
       <c r="M15">
-        <v>23.57467730252962</v>
+        <v>13.48726442449355</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.759959290157997</v>
       </c>
       <c r="O15">
-        <v>9.724094191690021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.92968439029838</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.08699463899439</v>
+        <v>16.13659486433983</v>
       </c>
       <c r="C16">
-        <v>16.91298075153116</v>
+        <v>7.996812747178961</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.90376805862691</v>
+        <v>7.265035763754243</v>
       </c>
       <c r="F16">
-        <v>30.61657907393554</v>
+        <v>27.15748888377335</v>
       </c>
       <c r="G16">
-        <v>15.39017688725697</v>
+        <v>28.20733851003686</v>
       </c>
       <c r="H16">
-        <v>6.300116444980095</v>
+        <v>6.769687000853729</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.220191717207685</v>
       </c>
       <c r="J16">
-        <v>4.302241468858738</v>
+        <v>10.39870387967523</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.65674738048688</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.467824793238764</v>
       </c>
       <c r="M16">
-        <v>22.81507494351623</v>
+        <v>13.07411689469415</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.693785594329231</v>
       </c>
       <c r="O16">
-        <v>9.726013259287726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.04079943855871</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.58743776484473</v>
+        <v>15.97246192216302</v>
       </c>
       <c r="C17">
-        <v>16.6171961241441</v>
+        <v>7.801077455909813</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.64267516372863</v>
+        <v>7.474941746134496</v>
       </c>
       <c r="F17">
-        <v>30.18241284593537</v>
+        <v>27.543375733477</v>
       </c>
       <c r="G17">
-        <v>15.18044916126284</v>
+        <v>28.6604536873375</v>
       </c>
       <c r="H17">
-        <v>6.34046016594535</v>
+        <v>6.074827373550235</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.277872814464703</v>
       </c>
       <c r="J17">
-        <v>4.319507654422098</v>
+        <v>10.51396153664392</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.88881447154657</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.363795543563667</v>
       </c>
       <c r="M17">
-        <v>22.3377748687343</v>
+        <v>12.87068714002577</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.905018411631657</v>
       </c>
       <c r="O17">
-        <v>9.73459048888591</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.11565753290825</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.29573062253885</v>
+        <v>16.08810857234543</v>
       </c>
       <c r="C18">
-        <v>16.44487209348123</v>
+        <v>7.590936338314067</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.49229926708879</v>
+        <v>7.982852652203634</v>
       </c>
       <c r="F18">
-        <v>29.93381752770506</v>
+        <v>28.56586172935713</v>
       </c>
       <c r="G18">
-        <v>15.06433856976055</v>
+        <v>29.71394851061145</v>
       </c>
       <c r="H18">
-        <v>6.364594817715259</v>
+        <v>4.896308473431937</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.284585524750219</v>
       </c>
       <c r="J18">
-        <v>4.329531564344475</v>
+        <v>10.72032121963694</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.31683902184241</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.231252522005576</v>
       </c>
       <c r="M18">
-        <v>22.05906226249373</v>
+        <v>12.83414318479938</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.388134917262014</v>
       </c>
       <c r="O18">
-        <v>9.742135702853995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>13.17702929393666</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.1962108513179</v>
+        <v>16.39010008813186</v>
       </c>
       <c r="C19">
-        <v>16.38615019427731</v>
+        <v>7.411376407330087</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.44135286576861</v>
+        <v>8.746175836104083</v>
       </c>
       <c r="F19">
-        <v>29.84984584695594</v>
+        <v>29.97634361747479</v>
       </c>
       <c r="G19">
-        <v>15.02580223270885</v>
+        <v>31.08665422000112</v>
       </c>
       <c r="H19">
-        <v>6.372922083881306</v>
+        <v>3.543537577523333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.265789006745781</v>
       </c>
       <c r="J19">
-        <v>4.332941483211997</v>
+        <v>10.97179674007765</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.8466750192824</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.108755168226786</v>
       </c>
       <c r="M19">
-        <v>21.96397420805411</v>
+        <v>12.92900224326682</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.075213682983588</v>
       </c>
       <c r="O19">
-        <v>9.74512867075531</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>13.23243356059743</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.64106895387593</v>
+        <v>17.23214635444344</v>
       </c>
       <c r="C20">
-        <v>16.64891053702539</v>
+        <v>7.294770579327746</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.67049057451386</v>
+        <v>10.12226980779086</v>
       </c>
       <c r="F20">
-        <v>30.2285152771257</v>
+        <v>32.46332340978105</v>
       </c>
       <c r="G20">
-        <v>15.20230748466694</v>
+        <v>33.43069467536672</v>
       </c>
       <c r="H20">
-        <v>6.336068285467617</v>
+        <v>2.222854308187301</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.143485936923712</v>
       </c>
       <c r="J20">
-        <v>4.317660040314557</v>
+        <v>11.36730906250876</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.70004511446629</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.008814333088262</v>
       </c>
       <c r="M20">
-        <v>22.38901653497873</v>
+        <v>13.39327175262594</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.254053494789732</v>
       </c>
       <c r="O20">
-        <v>9.73340467196693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>13.26541439618659</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.08356060225579</v>
+        <v>18.26350329234093</v>
       </c>
       <c r="C21">
-        <v>17.5054227838876</v>
+        <v>7.612630015389417</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.43774294540259</v>
+        <v>10.6123151907353</v>
       </c>
       <c r="F21">
-        <v>31.51389269072123</v>
+        <v>33.7052568909479</v>
       </c>
       <c r="G21">
-        <v>15.84923609608683</v>
+        <v>34.42996625761848</v>
       </c>
       <c r="H21">
-        <v>6.22366757795213</v>
+        <v>1.925630822416222</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.930144882001875</v>
       </c>
       <c r="J21">
-        <v>4.267422499997138</v>
+        <v>11.45674155200427</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.90814856712711</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.073586519843378</v>
       </c>
       <c r="M21">
-        <v>23.76731741333734</v>
+        <v>14.20262052032344</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.718467661388198</v>
       </c>
       <c r="O21">
-        <v>9.725973234536436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>13.07941447322274</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.98768207112945</v>
+        <v>18.90048436217372</v>
       </c>
       <c r="C22">
-        <v>18.04542070979763</v>
+        <v>7.815626842004619</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.93681179308481</v>
+        <v>10.86259052663309</v>
       </c>
       <c r="F22">
-        <v>32.36299257136805</v>
+        <v>34.43173142655</v>
       </c>
       <c r="G22">
-        <v>16.31187607294308</v>
+        <v>35.04107071421797</v>
       </c>
       <c r="H22">
-        <v>6.159457689642645</v>
+        <v>1.748449517353077</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.784943452214399</v>
       </c>
       <c r="J22">
-        <v>4.235406019381351</v>
+        <v>11.51052451119867</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.03280181912338</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.118219668484709</v>
       </c>
       <c r="M22">
-        <v>24.63144399057513</v>
+        <v>14.70298916869553</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.957518531820687</v>
       </c>
       <c r="O22">
-        <v>9.746634084018627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.95671506553066</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.5086525251807</v>
+        <v>18.57832001891757</v>
       </c>
       <c r="C23">
-        <v>17.75903182173744</v>
+        <v>7.697622312156979</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.67069038248914</v>
+        <v>10.72966736360367</v>
       </c>
       <c r="F23">
-        <v>31.90902722754594</v>
+        <v>34.07229815933233</v>
       </c>
       <c r="G23">
-        <v>16.06134101653887</v>
+        <v>34.76846508835937</v>
       </c>
       <c r="H23">
-        <v>6.192831817554441</v>
+        <v>1.841589307809235</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.8503245614597</v>
       </c>
       <c r="J23">
-        <v>4.25241957468825</v>
+        <v>11.49177686435346</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.98976792574886</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.093644815291257</v>
       </c>
       <c r="M23">
-        <v>24.17357053208965</v>
+        <v>14.44178259071391</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.824450272502565</v>
       </c>
       <c r="O23">
-        <v>9.733165279804982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>13.02546908702809</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.6168363295946</v>
+        <v>17.2793881122936</v>
       </c>
       <c r="C24">
-        <v>16.63457952960111</v>
+        <v>7.257623125552954</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.65791606171224</v>
+        <v>10.21174509289745</v>
       </c>
       <c r="F24">
-        <v>30.20766920200006</v>
+        <v>32.64869974117094</v>
       </c>
       <c r="G24">
-        <v>15.19241142699291</v>
+        <v>33.65786965565791</v>
       </c>
       <c r="H24">
-        <v>6.338050935560409</v>
+        <v>2.203672972574063</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.124190025758011</v>
       </c>
       <c r="J24">
-        <v>4.318495043314585</v>
+        <v>11.41084491242434</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.79640605576311</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.999599833500315</v>
       </c>
       <c r="M24">
-        <v>22.36586359746164</v>
+        <v>13.40228240476686</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.316531169720834</v>
       </c>
       <c r="O24">
-        <v>9.733932663018372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>13.2819051908769</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.40881602807274</v>
+        <v>15.76266276341382</v>
       </c>
       <c r="C25">
-        <v>15.33797616369094</v>
+        <v>6.76280808569429</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.55827859702638</v>
+        <v>9.623386504256965</v>
       </c>
       <c r="F25">
-        <v>28.41637147337331</v>
+        <v>31.08068363481371</v>
       </c>
       <c r="G25">
-        <v>14.42750692539695</v>
+        <v>32.48219294764065</v>
       </c>
       <c r="H25">
-        <v>6.529796358062351</v>
+        <v>2.611240547227208</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.434686296512093</v>
       </c>
       <c r="J25">
-        <v>4.393325040221469</v>
+        <v>11.33748013881135</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.60555452079781</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.892964083168162</v>
       </c>
       <c r="M25">
-        <v>20.38801920874778</v>
+        <v>12.1859235375093</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.740856454217163</v>
       </c>
       <c r="O25">
-        <v>9.833207825319016</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.56220550551994</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.59265634652569</v>
+        <v>14.07819174808107</v>
       </c>
       <c r="C2">
-        <v>6.352674375848786</v>
+        <v>6.298310001697654</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.166201605043598</v>
+        <v>9.22260083745031</v>
       </c>
       <c r="F2">
-        <v>29.98009568976579</v>
+        <v>29.06066968564884</v>
       </c>
       <c r="G2">
-        <v>31.78131431785928</v>
+        <v>29.62510072075712</v>
       </c>
       <c r="H2">
-        <v>2.923784796746221</v>
+        <v>2.787433727727829</v>
       </c>
       <c r="I2">
-        <v>3.651398936153423</v>
+        <v>3.465073299239465</v>
       </c>
       <c r="J2">
-        <v>11.32042871009365</v>
+        <v>11.07169431607334</v>
       </c>
       <c r="K2">
-        <v>18.53957153505042</v>
+        <v>17.54174972321964</v>
       </c>
       <c r="L2">
-        <v>5.808219732066864</v>
+        <v>14.02981938047902</v>
       </c>
       <c r="M2">
-        <v>11.21892754950383</v>
+        <v>11.94904588503258</v>
       </c>
       <c r="N2">
-        <v>8.277898859176535</v>
+        <v>5.74267661776848</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.17390359338435</v>
       </c>
       <c r="P2">
-        <v>13.78159891221343</v>
+        <v>8.574769484387163</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.50769471612995</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.7149281501211</v>
+        <v>13.23986793962444</v>
       </c>
       <c r="C3">
-        <v>6.079093087173699</v>
+        <v>5.967669733745693</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.842499901252999</v>
+        <v>8.90815393670559</v>
       </c>
       <c r="F3">
-        <v>29.18348440125027</v>
+        <v>28.34410749712821</v>
       </c>
       <c r="G3">
-        <v>31.24068502981443</v>
+        <v>29.28105979782392</v>
       </c>
       <c r="H3">
-        <v>3.147299715212981</v>
+        <v>2.995786210841194</v>
       </c>
       <c r="I3">
-        <v>3.820414387015752</v>
+        <v>3.613752101332691</v>
       </c>
       <c r="J3">
-        <v>11.30073209526792</v>
+        <v>11.03535796286082</v>
       </c>
       <c r="K3">
-        <v>18.46895600039518</v>
+        <v>17.52694802218591</v>
       </c>
       <c r="L3">
-        <v>5.749022167077407</v>
+        <v>14.11006195153579</v>
       </c>
       <c r="M3">
-        <v>10.50554782559781</v>
+        <v>11.87257433255001</v>
       </c>
       <c r="N3">
-        <v>7.96114119637007</v>
+        <v>5.67241399704166</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.48109176162749</v>
       </c>
       <c r="P3">
-        <v>13.92787361477367</v>
+        <v>8.247709173301782</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.65043661983329</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.14583057984336</v>
+        <v>12.69491378403064</v>
       </c>
       <c r="C4">
-        <v>5.906200770376568</v>
+        <v>5.758063428980179</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.637325133328529</v>
+        <v>8.70911861864915</v>
       </c>
       <c r="F4">
-        <v>28.6899718432734</v>
+        <v>27.89991106378328</v>
       </c>
       <c r="G4">
-        <v>30.91380157281653</v>
+        <v>29.0778186324695</v>
       </c>
       <c r="H4">
-        <v>3.289676968809837</v>
+        <v>3.128589554316048</v>
       </c>
       <c r="I4">
-        <v>3.928616437149135</v>
+        <v>3.709264651082778</v>
       </c>
       <c r="J4">
-        <v>11.29128777085422</v>
+        <v>11.0135249153793</v>
       </c>
       <c r="K4">
-        <v>18.42852431816934</v>
+        <v>17.51967216682745</v>
       </c>
       <c r="L4">
-        <v>5.711292146664572</v>
+        <v>14.158068460805</v>
       </c>
       <c r="M4">
-        <v>10.04162542599913</v>
+        <v>11.84239974089375</v>
       </c>
       <c r="N4">
-        <v>7.761364765321548</v>
+        <v>5.627925792163549</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.03061012899936</v>
       </c>
       <c r="P4">
-        <v>14.01890988288559</v>
+        <v>8.041885167385145</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.73944920665488</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.90108985005164</v>
+        <v>12.46003235341203</v>
       </c>
       <c r="C5">
-        <v>5.837659677583824</v>
+        <v>5.67475010117247</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.552173023262673</v>
+        <v>8.626599467437178</v>
       </c>
       <c r="F5">
-        <v>28.47971367709021</v>
+        <v>27.70995135093951</v>
       </c>
       <c r="G5">
-        <v>30.76643217904871</v>
+        <v>28.9820573282579</v>
       </c>
       <c r="H5">
-        <v>3.349352630314439</v>
+        <v>3.184276384290351</v>
       </c>
       <c r="I5">
-        <v>3.976366440222138</v>
+        <v>3.752206299951092</v>
       </c>
       <c r="J5">
-        <v>11.28535736893038</v>
+        <v>11.00203492087576</v>
       </c>
       <c r="K5">
-        <v>18.40637787968868</v>
+        <v>17.51109239685887</v>
       </c>
       <c r="L5">
-        <v>5.695707336832507</v>
+        <v>14.17175545237292</v>
       </c>
       <c r="M5">
-        <v>9.844715605646078</v>
+        <v>11.83075195145405</v>
       </c>
       <c r="N5">
-        <v>7.68064369537103</v>
+        <v>5.609675588539124</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.839436881875645</v>
       </c>
       <c r="P5">
-        <v>14.05526647961257</v>
+        <v>7.958730401191323</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.77522394034751</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.8534603175498</v>
+        <v>12.41412176823149</v>
       </c>
       <c r="C6">
-        <v>5.830056151411132</v>
+        <v>5.665388747281049</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.537941569867762</v>
+        <v>8.612828886487851</v>
       </c>
       <c r="F6">
-        <v>28.43461282386713</v>
+        <v>27.66847139612152</v>
       </c>
       <c r="G6">
-        <v>30.7230690504369</v>
+        <v>28.94803157817442</v>
       </c>
       <c r="H6">
-        <v>3.359763768550879</v>
+        <v>3.193998006372067</v>
       </c>
       <c r="I6">
-        <v>3.987599718258835</v>
+        <v>3.76318691042523</v>
       </c>
       <c r="J6">
-        <v>11.28106936001857</v>
+        <v>10.99681938889917</v>
       </c>
       <c r="K6">
-        <v>18.39492832200684</v>
+        <v>17.50229602113524</v>
       </c>
       <c r="L6">
-        <v>5.693271927760231</v>
+        <v>14.16722608161273</v>
       </c>
       <c r="M6">
-        <v>9.809984844701093</v>
+        <v>11.8246722497816</v>
       </c>
       <c r="N6">
-        <v>7.669529803817944</v>
+        <v>5.606893802887728</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.805726642607347</v>
       </c>
       <c r="P6">
-        <v>14.06003035882298</v>
+        <v>7.947153555077392</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.78014911373443</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.12507593176416</v>
+        <v>12.67037124544586</v>
       </c>
       <c r="C7">
-        <v>5.915661036476802</v>
+        <v>5.760645682675193</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.636182276597964</v>
+        <v>8.713695677612344</v>
       </c>
       <c r="F7">
-        <v>28.65970392607154</v>
+        <v>27.85723983572926</v>
       </c>
       <c r="G7">
-        <v>30.86029268342692</v>
+        <v>29.08972005611296</v>
       </c>
       <c r="H7">
-        <v>3.291611760531341</v>
+        <v>3.130963795958608</v>
       </c>
       <c r="I7">
-        <v>3.937827474874756</v>
+        <v>3.720476496559615</v>
       </c>
       <c r="J7">
-        <v>11.28210158001374</v>
+        <v>10.96484066486692</v>
       </c>
       <c r="K7">
-        <v>18.40693298896209</v>
+        <v>17.49024321304647</v>
       </c>
       <c r="L7">
-        <v>5.71157809956601</v>
+        <v>14.13187541248261</v>
       </c>
       <c r="M7">
-        <v>10.03461416017194</v>
+        <v>11.82419744312079</v>
       </c>
       <c r="N7">
-        <v>7.766646302432627</v>
+        <v>5.628840801181014</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.01686384937459</v>
       </c>
       <c r="P7">
-        <v>14.01592226932682</v>
+        <v>8.048492641789364</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.73576073778176</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.27482555945344</v>
+        <v>13.76143556656414</v>
       </c>
       <c r="C8">
-        <v>6.272510984172632</v>
+        <v>6.174114167603117</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.055974205428214</v>
+        <v>9.1336121828855</v>
       </c>
       <c r="F8">
-        <v>29.67143015002699</v>
+        <v>28.73761719396014</v>
       </c>
       <c r="G8">
-        <v>31.52730089949148</v>
+        <v>29.64721427687583</v>
       </c>
       <c r="H8">
-        <v>3.001219713199013</v>
+        <v>2.861327438325088</v>
       </c>
       <c r="I8">
-        <v>3.719682249507735</v>
+        <v>3.530154664146659</v>
       </c>
       <c r="J8">
-        <v>11.30115083059446</v>
+        <v>10.91851271114953</v>
       </c>
       <c r="K8">
-        <v>18.48672752138165</v>
+        <v>17.4800219882621</v>
       </c>
       <c r="L8">
-        <v>5.788838985457491</v>
+        <v>14.01012778390296</v>
       </c>
       <c r="M8">
-        <v>10.97294259893405</v>
+        <v>11.88117050143488</v>
       </c>
       <c r="N8">
-        <v>8.177871169736173</v>
+        <v>5.721322537155274</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.91362141244586</v>
       </c>
       <c r="P8">
-        <v>13.82742847982678</v>
+        <v>8.475810330418595</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.54910409136767</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.31492413361977</v>
+        <v>15.70209614480241</v>
       </c>
       <c r="C9">
-        <v>6.915682875528388</v>
+        <v>6.942780312919377</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.82539033495059</v>
+        <v>9.885765387395663</v>
       </c>
       <c r="F9">
-        <v>31.65722094659135</v>
+        <v>30.51709816651944</v>
       </c>
       <c r="G9">
-        <v>32.96131810944209</v>
+        <v>30.65890199069826</v>
       </c>
       <c r="H9">
-        <v>2.469829403676647</v>
+        <v>2.366754829831635</v>
       </c>
       <c r="I9">
-        <v>3.312405652628363</v>
+        <v>3.171360574641535</v>
       </c>
       <c r="J9">
-        <v>11.37629146962547</v>
+        <v>10.98890936073042</v>
       </c>
       <c r="K9">
-        <v>18.70461831365004</v>
+        <v>17.54390329004458</v>
       </c>
       <c r="L9">
-        <v>5.928401460248482</v>
+        <v>13.82074852161973</v>
       </c>
       <c r="M9">
-        <v>12.61495241494477</v>
+        <v>12.16955354151764</v>
       </c>
       <c r="N9">
-        <v>8.928258322432267</v>
+        <v>5.888933456170589</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.50544349854215</v>
       </c>
       <c r="P9">
-        <v>13.4726679978951</v>
+        <v>9.25399739932169</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.20285162431423</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.60661118553116</v>
+        <v>16.90980827663383</v>
       </c>
       <c r="C10">
-        <v>7.388382643306284</v>
+        <v>7.457228464904624</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.23285850467091</v>
+        <v>10.31049734161473</v>
       </c>
       <c r="F10">
-        <v>32.86116594304381</v>
+        <v>31.51826354592258</v>
       </c>
       <c r="G10">
-        <v>33.8102773234725</v>
+        <v>31.59030460101179</v>
       </c>
       <c r="H10">
-        <v>2.133446470235283</v>
+        <v>2.058586792190438</v>
       </c>
       <c r="I10">
-        <v>3.044970647521073</v>
+        <v>2.941802491436371</v>
       </c>
       <c r="J10">
-        <v>11.40464745530882</v>
+        <v>10.79342831274794</v>
       </c>
       <c r="K10">
-        <v>18.7907579482516</v>
+        <v>17.47500880080378</v>
       </c>
       <c r="L10">
-        <v>6.033331753905258</v>
+        <v>13.58239655522026</v>
       </c>
       <c r="M10">
-        <v>13.67522626014042</v>
+        <v>12.35809224050523</v>
       </c>
       <c r="N10">
-        <v>9.35105103866387</v>
+        <v>6.020641712632185</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.50276332710536</v>
       </c>
       <c r="P10">
-        <v>13.20480527609002</v>
+        <v>9.702431465143196</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.94231499544368</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.71779217870436</v>
+        <v>17.00337752967674</v>
       </c>
       <c r="C11">
-        <v>7.785780562394107</v>
+        <v>7.790362051903871</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.393149952602366</v>
+        <v>9.517636740122832</v>
       </c>
       <c r="F11">
-        <v>31.60951751318242</v>
+        <v>30.16613644566792</v>
       </c>
       <c r="G11">
-        <v>32.40884489225912</v>
+        <v>31.01829577220144</v>
       </c>
       <c r="H11">
-        <v>3.012688879229382</v>
+        <v>2.967763976091333</v>
       </c>
       <c r="I11">
-        <v>2.994002788784459</v>
+        <v>2.908464461107794</v>
       </c>
       <c r="J11">
-        <v>11.08932519400793</v>
+        <v>10.10884679540893</v>
       </c>
       <c r="K11">
-        <v>18.12043685915476</v>
+        <v>16.76804824417206</v>
       </c>
       <c r="L11">
-        <v>6.179907790981066</v>
+        <v>12.98692605017875</v>
       </c>
       <c r="M11">
-        <v>13.95252199122078</v>
+        <v>11.91115419215785</v>
       </c>
       <c r="N11">
-        <v>8.69416567820749</v>
+        <v>6.212162502583505</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.71449708710034</v>
       </c>
       <c r="P11">
-        <v>13.00414625678739</v>
+        <v>9.046213627978812</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.78841715261395</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.56416528472608</v>
+        <v>16.86405820346635</v>
       </c>
       <c r="C12">
-        <v>8.017561594910006</v>
+        <v>7.976741573314971</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.642381439835937</v>
+        <v>8.778298288543407</v>
       </c>
       <c r="F12">
-        <v>30.31839746125432</v>
+        <v>28.87588013188451</v>
       </c>
       <c r="G12">
-        <v>31.09882639091803</v>
+        <v>30.16774583377285</v>
       </c>
       <c r="H12">
-        <v>4.325437091241972</v>
+        <v>4.294810090448673</v>
       </c>
       <c r="I12">
-        <v>2.987073259642623</v>
+        <v>2.904371716846681</v>
       </c>
       <c r="J12">
-        <v>10.82798882530677</v>
+        <v>9.740439083140538</v>
       </c>
       <c r="K12">
-        <v>17.56886043481726</v>
+        <v>16.25321432014008</v>
       </c>
       <c r="L12">
-        <v>6.310710848974176</v>
+        <v>12.59485451572514</v>
       </c>
       <c r="M12">
-        <v>13.97560453604789</v>
+        <v>11.53425838566889</v>
       </c>
       <c r="N12">
-        <v>8.047831605160273</v>
+        <v>6.372016296585493</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.7137212796337</v>
       </c>
       <c r="P12">
-        <v>12.912469206428</v>
+        <v>8.38904240371779</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.73820244636923</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.17187983450998</v>
+        <v>16.52077173207126</v>
       </c>
       <c r="C13">
-        <v>8.153363857369611</v>
+        <v>8.101691529917817</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.916368027789672</v>
+        <v>8.030642230487036</v>
       </c>
       <c r="F13">
-        <v>28.86061779273034</v>
+        <v>27.52611316543317</v>
       </c>
       <c r="G13">
-        <v>29.68961181769344</v>
+        <v>28.81196180224402</v>
       </c>
       <c r="H13">
-        <v>5.718624295749879</v>
+        <v>5.692742333195782</v>
       </c>
       <c r="I13">
-        <v>3.028146012726065</v>
+        <v>2.938720412071667</v>
       </c>
       <c r="J13">
-        <v>10.57831105849372</v>
+        <v>9.612994792957718</v>
       </c>
       <c r="K13">
-        <v>17.04363208359019</v>
+        <v>15.84117921833762</v>
       </c>
       <c r="L13">
-        <v>6.435373287116775</v>
+        <v>12.31211205437144</v>
       </c>
       <c r="M13">
-        <v>13.80029181788282</v>
+        <v>11.18488328929551</v>
       </c>
       <c r="N13">
-        <v>7.370251899212449</v>
+        <v>6.509361178563021</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.55816061225081</v>
       </c>
       <c r="P13">
-        <v>12.89264925230673</v>
+        <v>7.688242062508116</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.75287240708547</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.77946575315711</v>
+        <v>16.17871621508002</v>
       </c>
       <c r="C14">
-        <v>8.210202050394836</v>
+        <v>8.167316194589777</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.435301964830134</v>
+        <v>7.523691274779476</v>
       </c>
       <c r="F14">
-        <v>27.75149056406214</v>
+        <v>26.5393117326071</v>
       </c>
       <c r="G14">
-        <v>28.64284491099956</v>
+        <v>27.63284164206149</v>
       </c>
       <c r="H14">
-        <v>6.716104117657433</v>
+        <v>6.691140931424236</v>
       </c>
       <c r="I14">
-        <v>3.081370490375741</v>
+        <v>2.98351355415268</v>
       </c>
       <c r="J14">
-        <v>10.40771012748209</v>
+        <v>9.613891194962674</v>
       </c>
       <c r="K14">
-        <v>16.6864038558551</v>
+        <v>15.59319896378135</v>
       </c>
       <c r="L14">
-        <v>6.522716057750816</v>
+        <v>12.1546981663498</v>
       </c>
       <c r="M14">
-        <v>13.58450449192315</v>
+        <v>10.95178171282852</v>
       </c>
       <c r="N14">
-        <v>6.884193615044025</v>
+        <v>6.596418780302034</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.37569732718208</v>
       </c>
       <c r="P14">
-        <v>12.91226384602694</v>
+        <v>7.180792144324603</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.79021157019474</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.62628353768652</v>
+        <v>16.04478582108411</v>
       </c>
       <c r="C15">
-        <v>8.207091020840794</v>
+        <v>8.173899166331031</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.317853042296352</v>
+        <v>7.396719087707056</v>
       </c>
       <c r="F15">
-        <v>27.43854407300271</v>
+        <v>26.27616965004698</v>
       </c>
       <c r="G15">
-        <v>28.3523528343232</v>
+        <v>27.24076926575332</v>
       </c>
       <c r="H15">
-        <v>6.950375540868971</v>
+        <v>6.924893135937261</v>
       </c>
       <c r="I15">
-        <v>3.109256228252629</v>
+        <v>3.008063380556623</v>
       </c>
       <c r="J15">
-        <v>10.36631296759596</v>
+        <v>9.651173409460068</v>
       </c>
       <c r="K15">
-        <v>16.59896545076553</v>
+        <v>15.54533810098885</v>
       </c>
       <c r="L15">
-        <v>6.539606543659479</v>
+        <v>12.1298122712105</v>
       </c>
       <c r="M15">
-        <v>13.48726442449355</v>
+        <v>10.89630601904425</v>
       </c>
       <c r="N15">
-        <v>6.759959290157997</v>
+        <v>6.609741477348728</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.2950867096723</v>
       </c>
       <c r="P15">
-        <v>12.92968439029838</v>
+        <v>7.049435857186949</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.80968366640217</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.13659486433983</v>
+        <v>15.61297490540534</v>
       </c>
       <c r="C16">
-        <v>7.996812747178961</v>
+        <v>8.021431902006208</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.265035763754243</v>
+        <v>7.317051455347635</v>
       </c>
       <c r="F16">
-        <v>27.15748888377335</v>
+        <v>26.16107644442246</v>
       </c>
       <c r="G16">
-        <v>28.20733851003686</v>
+        <v>26.53903300785771</v>
       </c>
       <c r="H16">
-        <v>6.769687000853729</v>
+        <v>6.736805936739946</v>
       </c>
       <c r="I16">
-        <v>3.220191717207685</v>
+        <v>3.101040157207965</v>
       </c>
       <c r="J16">
-        <v>10.39870387967523</v>
+        <v>10.00250761662106</v>
       </c>
       <c r="K16">
-        <v>16.65674738048688</v>
+        <v>15.70861544343541</v>
       </c>
       <c r="L16">
-        <v>6.467824793238764</v>
+        <v>12.29223168278188</v>
       </c>
       <c r="M16">
-        <v>13.07411689469415</v>
+        <v>10.94547001170265</v>
       </c>
       <c r="N16">
-        <v>6.693785594329231</v>
+        <v>6.509877556851292</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.95334941219578</v>
       </c>
       <c r="P16">
-        <v>13.04079943855871</v>
+        <v>6.968088400678744</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.90178212215002</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.97246192216302</v>
+        <v>15.46062642685288</v>
       </c>
       <c r="C17">
-        <v>7.801077455909813</v>
+        <v>7.851962674859853</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.474941746134496</v>
+        <v>7.518848037200615</v>
       </c>
       <c r="F17">
-        <v>27.543375733477</v>
+        <v>26.59286775826173</v>
       </c>
       <c r="G17">
-        <v>28.6604536873375</v>
+        <v>26.72018175750905</v>
       </c>
       <c r="H17">
-        <v>6.074827373550235</v>
+        <v>6.034244391230715</v>
       </c>
       <c r="I17">
-        <v>3.277872814464703</v>
+        <v>3.150183711441564</v>
       </c>
       <c r="J17">
-        <v>10.51396153664392</v>
+        <v>10.24543805244533</v>
       </c>
       <c r="K17">
-        <v>16.88881447154657</v>
+        <v>15.95661684087725</v>
       </c>
       <c r="L17">
-        <v>6.363795543563667</v>
+        <v>12.50235642810993</v>
       </c>
       <c r="M17">
-        <v>12.87068714002577</v>
+        <v>11.09511414069659</v>
       </c>
       <c r="N17">
-        <v>6.905018411631657</v>
+        <v>6.388628700645241</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.77858979672619</v>
       </c>
       <c r="P17">
-        <v>13.11565753290825</v>
+        <v>7.179988581922705</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.95755636832611</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08810857234543</v>
+        <v>15.55642997221457</v>
       </c>
       <c r="C18">
-        <v>7.590936338314067</v>
+        <v>7.657525201190844</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.982852652203634</v>
+        <v>8.0242844994299</v>
       </c>
       <c r="F18">
-        <v>28.56586172935713</v>
+        <v>27.58787156866053</v>
       </c>
       <c r="G18">
-        <v>29.71394851061145</v>
+        <v>27.57200586833608</v>
       </c>
       <c r="H18">
-        <v>4.896308473431937</v>
+        <v>4.844852528789553</v>
       </c>
       <c r="I18">
-        <v>3.284585524750219</v>
+        <v>3.153134338928139</v>
       </c>
       <c r="J18">
-        <v>10.72032121963694</v>
+        <v>10.48650069474816</v>
       </c>
       <c r="K18">
-        <v>17.31683902184241</v>
+        <v>16.34192539648577</v>
       </c>
       <c r="L18">
-        <v>6.231252522005576</v>
+        <v>12.8077144598819</v>
       </c>
       <c r="M18">
-        <v>12.83414318479938</v>
+        <v>11.36955891008665</v>
       </c>
       <c r="N18">
-        <v>7.388134917262014</v>
+        <v>6.241883601631331</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.74793440223669</v>
       </c>
       <c r="P18">
-        <v>13.17702929393666</v>
+        <v>7.674283220893196</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.99460120837827</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.39010008813186</v>
+        <v>15.81882518424452</v>
       </c>
       <c r="C19">
-        <v>7.411376407330087</v>
+        <v>7.491039742497795</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.746175836104083</v>
+        <v>8.78767703556378</v>
       </c>
       <c r="F19">
-        <v>29.97634361747479</v>
+        <v>28.92558128363007</v>
       </c>
       <c r="G19">
-        <v>31.08665422000112</v>
+        <v>28.76314443499573</v>
       </c>
       <c r="H19">
-        <v>3.543537577523333</v>
+        <v>3.475648408487963</v>
       </c>
       <c r="I19">
-        <v>3.265789006745781</v>
+        <v>3.138166142007944</v>
       </c>
       <c r="J19">
-        <v>10.97179674007765</v>
+        <v>10.72198101581143</v>
       </c>
       <c r="K19">
-        <v>17.8466750192824</v>
+        <v>16.79311461244287</v>
       </c>
       <c r="L19">
-        <v>6.108755168226786</v>
+        <v>13.15521232726754</v>
       </c>
       <c r="M19">
-        <v>12.92900224326682</v>
+        <v>11.70962876074801</v>
       </c>
       <c r="N19">
-        <v>8.075213682983588</v>
+        <v>6.10536440998335</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.83502979144989</v>
       </c>
       <c r="P19">
-        <v>13.23243356059743</v>
+        <v>8.378838520418091</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.02171130722627</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.23214635444344</v>
+        <v>16.57001150846403</v>
       </c>
       <c r="C20">
-        <v>7.294770579327746</v>
+        <v>7.383059233897438</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.12226980779086</v>
+        <v>10.17788192610848</v>
       </c>
       <c r="F20">
-        <v>32.46332340978105</v>
+        <v>31.21777539482902</v>
       </c>
       <c r="G20">
-        <v>33.43069467536672</v>
+        <v>30.97847587642322</v>
       </c>
       <c r="H20">
-        <v>2.222854308187301</v>
+        <v>2.138814041270226</v>
       </c>
       <c r="I20">
-        <v>3.143485936923712</v>
+        <v>3.0339370260763</v>
       </c>
       <c r="J20">
-        <v>11.36730906250876</v>
+        <v>10.94984511570502</v>
       </c>
       <c r="K20">
-        <v>18.70004511446629</v>
+        <v>17.46174660853129</v>
       </c>
       <c r="L20">
-        <v>6.008814333088262</v>
+        <v>13.6216340248673</v>
       </c>
       <c r="M20">
-        <v>13.39327175262594</v>
+        <v>12.2806603371309</v>
       </c>
       <c r="N20">
-        <v>9.254053494789732</v>
+        <v>5.988232312464971</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.25672284970681</v>
       </c>
       <c r="P20">
-        <v>13.26541439618659</v>
+        <v>9.593625208291963</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.00766208057406</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.26350329234093</v>
+        <v>17.46901957789406</v>
       </c>
       <c r="C21">
-        <v>7.612630015389417</v>
+        <v>7.602169011326214</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.6123151907353</v>
+        <v>10.77480317264342</v>
       </c>
       <c r="F21">
-        <v>33.7052568909479</v>
+        <v>32.07016482948912</v>
       </c>
       <c r="G21">
-        <v>34.42996625761848</v>
+        <v>33.15140590653328</v>
       </c>
       <c r="H21">
-        <v>1.925630822416222</v>
+        <v>1.871116907463274</v>
       </c>
       <c r="I21">
-        <v>2.930144882001875</v>
+        <v>2.858311265259363</v>
       </c>
       <c r="J21">
-        <v>11.45674155200427</v>
+        <v>10.20087652020056</v>
       </c>
       <c r="K21">
-        <v>18.90814856712711</v>
+        <v>17.36428148994965</v>
       </c>
       <c r="L21">
-        <v>6.073586519843378</v>
+        <v>13.40930389261744</v>
       </c>
       <c r="M21">
-        <v>14.20262052032344</v>
+        <v>12.40348794014928</v>
       </c>
       <c r="N21">
-        <v>9.718467661388198</v>
+        <v>6.079670720660562</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.91849038005567</v>
       </c>
       <c r="P21">
-        <v>13.07941447322274</v>
+        <v>10.10599708688001</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.80332516642295</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.90048436217372</v>
+        <v>18.02049770031667</v>
       </c>
       <c r="C22">
-        <v>7.815626842004619</v>
+        <v>7.735492438359685</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.86259052663309</v>
+        <v>11.10145853327246</v>
       </c>
       <c r="F22">
-        <v>34.43173142655</v>
+        <v>32.53582396629259</v>
       </c>
       <c r="G22">
-        <v>35.04107071421797</v>
+        <v>34.64405367673123</v>
       </c>
       <c r="H22">
-        <v>1.748449517353077</v>
+        <v>1.712828180770399</v>
       </c>
       <c r="I22">
-        <v>2.784943452214399</v>
+        <v>2.73483236912093</v>
       </c>
       <c r="J22">
-        <v>11.51052451119867</v>
+        <v>9.71121947068217</v>
       </c>
       <c r="K22">
-        <v>19.03280181912338</v>
+        <v>17.27896168400175</v>
       </c>
       <c r="L22">
-        <v>6.118219668484709</v>
+        <v>13.25633970427875</v>
       </c>
       <c r="M22">
-        <v>14.70298916869553</v>
+        <v>12.47407690281092</v>
       </c>
       <c r="N22">
-        <v>9.957518531820687</v>
+        <v>6.144039366075674</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.3206665756122</v>
       </c>
       <c r="P22">
-        <v>12.95671506553066</v>
+        <v>10.3765274236632</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.67040463486649</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.57832001891757</v>
+        <v>17.75164582844122</v>
       </c>
       <c r="C23">
-        <v>7.697622312156979</v>
+        <v>7.670133607681616</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.72966736360367</v>
+        <v>10.9146358144977</v>
       </c>
       <c r="F23">
-        <v>34.07229815933233</v>
+        <v>32.34461572294634</v>
       </c>
       <c r="G23">
-        <v>34.76846508835937</v>
+        <v>33.73712447931149</v>
       </c>
       <c r="H23">
-        <v>1.841589307809235</v>
+        <v>1.79506800181982</v>
       </c>
       <c r="I23">
-        <v>2.8503245614597</v>
+        <v>2.785535814848823</v>
       </c>
       <c r="J23">
-        <v>11.49177686435346</v>
+        <v>10.05668239603462</v>
       </c>
       <c r="K23">
-        <v>18.98976792574886</v>
+        <v>17.36903436431516</v>
       </c>
       <c r="L23">
-        <v>6.093644815291257</v>
+        <v>13.36914463978016</v>
       </c>
       <c r="M23">
-        <v>14.44178259071391</v>
+        <v>12.4720111679928</v>
       </c>
       <c r="N23">
-        <v>9.824450272502565</v>
+        <v>6.106845442833359</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.12481679847979</v>
       </c>
       <c r="P23">
-        <v>13.02546908702809</v>
+        <v>10.22340113353564</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.74486307824231</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.2793881122936</v>
+        <v>16.61357592310112</v>
       </c>
       <c r="C24">
-        <v>7.257623125552954</v>
+        <v>7.344376700112713</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.21174509289745</v>
+        <v>10.26665983813762</v>
       </c>
       <c r="F24">
-        <v>32.64869974117094</v>
+        <v>31.39676097381128</v>
       </c>
       <c r="G24">
-        <v>33.65786965565791</v>
+        <v>31.1770431279602</v>
       </c>
       <c r="H24">
-        <v>2.203672972574063</v>
+        <v>2.119616193728</v>
       </c>
       <c r="I24">
-        <v>3.124190025758011</v>
+        <v>3.011468499062655</v>
       </c>
       <c r="J24">
-        <v>11.41084491242434</v>
+        <v>10.99553691149877</v>
       </c>
       <c r="K24">
-        <v>18.79640605576311</v>
+        <v>17.54857085294959</v>
       </c>
       <c r="L24">
-        <v>5.999599833500315</v>
+        <v>13.6890353025616</v>
       </c>
       <c r="M24">
-        <v>13.40228240476686</v>
+        <v>12.34514893171103</v>
       </c>
       <c r="N24">
-        <v>9.316531169720834</v>
+        <v>5.975931347424961</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.26567439730624</v>
       </c>
       <c r="P24">
-        <v>13.2819051908769</v>
+        <v>9.657792765018822</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.01851262310827</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.76266276341382</v>
+        <v>15.18205003505484</v>
       </c>
       <c r="C25">
-        <v>6.76280808569429</v>
+        <v>6.771284771828225</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.623386504256965</v>
+        <v>9.680791309122249</v>
       </c>
       <c r="F25">
-        <v>31.08068363481371</v>
+        <v>30.01454819238988</v>
       </c>
       <c r="G25">
-        <v>32.48219294764065</v>
+        <v>30.20658886516116</v>
       </c>
       <c r="H25">
-        <v>2.611240547227208</v>
+        <v>2.497601165567144</v>
       </c>
       <c r="I25">
-        <v>3.434686296512093</v>
+        <v>3.282671588778058</v>
       </c>
       <c r="J25">
-        <v>11.33748013881135</v>
+        <v>11.00850216299914</v>
       </c>
       <c r="K25">
-        <v>18.60555452079781</v>
+        <v>17.50264833301457</v>
       </c>
       <c r="L25">
-        <v>5.892964083168162</v>
+        <v>13.85556242537049</v>
       </c>
       <c r="M25">
-        <v>12.1859235375093</v>
+        <v>12.06130781818117</v>
       </c>
       <c r="N25">
-        <v>8.740856454217163</v>
+        <v>5.845783940285401</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.09798368834518</v>
       </c>
       <c r="P25">
-        <v>13.56220550551994</v>
+        <v>9.056785724857464</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.29324908052422</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
